--- a/PROYECTO MR/IPS/PPS- MR- HU_GP.GP.002 Obtener Orden de Pago.xlsx
+++ b/PROYECTO MR/IPS/PPS- MR- HU_GP.GP.002 Obtener Orden de Pago.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\IPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A21A564-F708-4515-B696-7DAC824821EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C1FA73-7079-4425-92D0-B9C787269E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="631" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17293,8 +17293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE48EE09-E661-402D-BA1B-A100D489DD1B}">
   <dimension ref="A3:CG82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BF47" sqref="BF47:BO47"/>
+    <sheetView tabSelected="1" topLeftCell="AI50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BP50" sqref="BP50:CD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21711,8 +21711,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2ceadb279047650dfe426ba3e3380dd2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff791535c28e4d58edbfde2b679c9ba4" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="20" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ec0472f12e3f11265cd3f58b50f33409">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb39c92f8a53a083727757d44a1e15cf" ns2:_="" ns3:_="">
     <xsd:import namespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
     <xsd:import namespace="328335c8-173a-4c26-85d0-3846c13a1e29"/>
     <xsd:element name="properties">
@@ -21738,6 +21738,7 @@
                 <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:Fehca" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -21748,7 +21749,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartido con" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -21767,7 +21768,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalles de uso compartido" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -21848,7 +21849,7 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="65f5b8bf-3c70-4e94-9883-59d6e1aebd9f" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="65f5b8bf-3c70-4e94-9883-59d6e1aebd9f" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -21865,6 +21866,11 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="Fehca" ma:index="26" nillable="true" ma:displayName="Fehca" ma:format="DateTime" ma:internalName="Fehca">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -21875,8 +21881,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -21972,6 +21978,7 @@
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
@@ -21986,7 +21993,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9BB36AA-4C70-4C4E-B4F0-5F110CEA1C3B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4BEE255-C0B5-48BE-BF7B-86ACE2B8615D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>

--- a/PROYECTO MR/IPS/PPS- MR- HU_GP.GP.002 Obtener Orden de Pago.xlsx
+++ b/PROYECTO MR/IPS/PPS- MR- HU_GP.GP.002 Obtener Orden de Pago.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\IPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C1FA73-7079-4425-92D0-B9C787269E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429ABBA4-8CE2-4D19-9E04-254466624308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="631" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,9 +550,6 @@
     <t>- Datos de una solicitud IPEN</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Que se reenvie exitosamente las solicitudes de CPB pendientes</t>
   </si>
   <si>
@@ -632,6 +629,9 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>1. Disparo automatico del Job</t>
+  </si>
 </sst>
 </file>
 
@@ -709,7 +709,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +737,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,7 +1287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1426,26 +1438,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1453,8 +1456,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1468,31 +1492,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1504,170 +1528,23 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1689,6 +1566,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1717,8 +1612,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1765,47 +1675,242 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -17293,8 +17398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE48EE09-E661-402D-BA1B-A100D489DD1B}">
   <dimension ref="A3:CG82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BP50" sqref="BP50:CD50"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BE32" sqref="BE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17341,297 +17446,297 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H3" s="137" t="s">
+      <c r="H3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="137"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="137"/>
-      <c r="S3" s="137"/>
-      <c r="T3" s="137"/>
-      <c r="U3" s="137"/>
-      <c r="V3" s="137"/>
-      <c r="W3" s="137"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="137"/>
-      <c r="Z3" s="137"/>
-      <c r="AA3" s="137"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="137"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="137"/>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="137"/>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="137"/>
-      <c r="AJ3" s="137"/>
-      <c r="AK3" s="137"/>
-      <c r="AL3" s="137"/>
-      <c r="AM3" s="137"/>
-      <c r="AN3" s="137"/>
-      <c r="AO3" s="137"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="92"/>
+      <c r="AL3" s="92"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="92"/>
+      <c r="AO3" s="92"/>
       <c r="AP3" s="36"/>
     </row>
     <row r="4" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="137"/>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="137"/>
-      <c r="S4" s="137"/>
-      <c r="T4" s="137"/>
-      <c r="U4" s="137"/>
-      <c r="V4" s="137"/>
-      <c r="W4" s="137"/>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="137"/>
-      <c r="Z4" s="137"/>
-      <c r="AA4" s="137"/>
-      <c r="AB4" s="137"/>
-      <c r="AC4" s="137"/>
-      <c r="AD4" s="137"/>
-      <c r="AE4" s="137"/>
-      <c r="AF4" s="137"/>
-      <c r="AG4" s="137"/>
-      <c r="AH4" s="137"/>
-      <c r="AI4" s="137"/>
-      <c r="AJ4" s="137"/>
-      <c r="AK4" s="137"/>
-      <c r="AL4" s="137"/>
-      <c r="AM4" s="137"/>
-      <c r="AN4" s="137"/>
-      <c r="AO4" s="137"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
       <c r="AP4" s="36"/>
     </row>
     <row r="5" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:42" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="138" t="s">
+      <c r="G7" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="138"/>
-      <c r="W7" s="138"/>
-      <c r="X7" s="138"/>
-      <c r="Y7" s="138"/>
-      <c r="Z7" s="138"/>
-      <c r="AA7" s="138"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="138"/>
-      <c r="AF7" s="138"/>
-      <c r="AG7" s="138"/>
-      <c r="AH7" s="138"/>
-      <c r="AI7" s="138"/>
-      <c r="AJ7" s="138"/>
-      <c r="AK7" s="138"/>
-      <c r="AL7" s="138"/>
-      <c r="AM7" s="138"/>
-      <c r="AN7" s="138"/>
-      <c r="AO7" s="138"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="93"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="93"/>
+      <c r="AO7" s="93"/>
       <c r="AP7" s="38"/>
     </row>
     <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G8" s="139" t="s">
+      <c r="G8" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="140"/>
-      <c r="I8" s="141" t="s">
+      <c r="H8" s="95"/>
+      <c r="I8" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="142"/>
-      <c r="K8" s="139" t="s">
+      <c r="J8" s="97"/>
+      <c r="K8" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="143"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="143"/>
-      <c r="P8" s="143"/>
-      <c r="Q8" s="143"/>
-      <c r="R8" s="143"/>
-      <c r="S8" s="143"/>
-      <c r="T8" s="143"/>
-      <c r="U8" s="143"/>
-      <c r="V8" s="143"/>
-      <c r="W8" s="143"/>
-      <c r="X8" s="143"/>
-      <c r="Y8" s="143"/>
-      <c r="Z8" s="143"/>
-      <c r="AA8" s="143"/>
-      <c r="AB8" s="143"/>
-      <c r="AC8" s="143"/>
-      <c r="AD8" s="143"/>
-      <c r="AE8" s="140"/>
-      <c r="AF8" s="139" t="s">
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="98"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="AG8" s="143"/>
-      <c r="AH8" s="143"/>
-      <c r="AI8" s="143"/>
-      <c r="AJ8" s="143"/>
-      <c r="AK8" s="143"/>
-      <c r="AL8" s="143"/>
-      <c r="AM8" s="143"/>
-      <c r="AN8" s="143"/>
-      <c r="AO8" s="140"/>
+      <c r="AG8" s="98"/>
+      <c r="AH8" s="98"/>
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="98"/>
+      <c r="AL8" s="98"/>
+      <c r="AM8" s="98"/>
+      <c r="AN8" s="98"/>
+      <c r="AO8" s="95"/>
       <c r="AP8" s="39"/>
     </row>
     <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G9" s="120">
+      <c r="G9" s="141">
         <v>45306</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122" t="s">
+      <c r="H9" s="142"/>
+      <c r="I9" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="123"/>
-      <c r="K9" s="124" t="s">
+      <c r="J9" s="144"/>
+      <c r="K9" s="117" t="s">
         <v>128</v>
       </c>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="125"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="125"/>
-      <c r="V9" s="125"/>
-      <c r="W9" s="125"/>
-      <c r="X9" s="125"/>
-      <c r="Y9" s="125"/>
-      <c r="Z9" s="125"/>
-      <c r="AA9" s="125"/>
-      <c r="AB9" s="125"/>
-      <c r="AC9" s="125"/>
-      <c r="AD9" s="125"/>
-      <c r="AE9" s="126"/>
-      <c r="AF9" s="124" t="s">
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="118"/>
+      <c r="V9" s="118"/>
+      <c r="W9" s="118"/>
+      <c r="X9" s="118"/>
+      <c r="Y9" s="118"/>
+      <c r="Z9" s="118"/>
+      <c r="AA9" s="118"/>
+      <c r="AB9" s="118"/>
+      <c r="AC9" s="118"/>
+      <c r="AD9" s="118"/>
+      <c r="AE9" s="119"/>
+      <c r="AF9" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="AG9" s="125"/>
-      <c r="AH9" s="125"/>
-      <c r="AI9" s="125"/>
-      <c r="AJ9" s="125"/>
-      <c r="AK9" s="125"/>
-      <c r="AL9" s="125"/>
-      <c r="AM9" s="125"/>
-      <c r="AN9" s="125"/>
-      <c r="AO9" s="126"/>
+      <c r="AG9" s="118"/>
+      <c r="AH9" s="118"/>
+      <c r="AI9" s="118"/>
+      <c r="AJ9" s="118"/>
+      <c r="AK9" s="118"/>
+      <c r="AL9" s="118"/>
+      <c r="AM9" s="118"/>
+      <c r="AN9" s="118"/>
+      <c r="AO9" s="119"/>
       <c r="AP9" s="40"/>
     </row>
     <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G10" s="120">
+      <c r="G10" s="141">
         <v>45345</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122" t="s">
+      <c r="H10" s="142"/>
+      <c r="I10" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="J10" s="123"/>
-      <c r="K10" s="130" t="s">
+      <c r="J10" s="144"/>
+      <c r="K10" s="114" t="s">
         <v>130</v>
       </c>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="153"/>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="153"/>
-      <c r="AC10" s="153"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="131"/>
-      <c r="AF10" s="124" t="s">
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="115"/>
+      <c r="W10" s="115"/>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="115"/>
+      <c r="AB10" s="115"/>
+      <c r="AC10" s="115"/>
+      <c r="AD10" s="115"/>
+      <c r="AE10" s="116"/>
+      <c r="AF10" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="AG10" s="125"/>
-      <c r="AH10" s="125"/>
-      <c r="AI10" s="125"/>
-      <c r="AJ10" s="125"/>
-      <c r="AK10" s="125"/>
-      <c r="AL10" s="125"/>
-      <c r="AM10" s="125"/>
-      <c r="AN10" s="125"/>
-      <c r="AO10" s="126"/>
+      <c r="AG10" s="118"/>
+      <c r="AH10" s="118"/>
+      <c r="AI10" s="118"/>
+      <c r="AJ10" s="118"/>
+      <c r="AK10" s="118"/>
+      <c r="AL10" s="118"/>
+      <c r="AM10" s="118"/>
+      <c r="AN10" s="118"/>
+      <c r="AO10" s="119"/>
       <c r="AP10" s="8"/>
     </row>
     <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G11" s="130"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="88"/>
-      <c r="AD11" s="88"/>
-      <c r="AE11" s="89"/>
-      <c r="AF11" s="111"/>
-      <c r="AG11" s="88"/>
-      <c r="AH11" s="88"/>
-      <c r="AI11" s="88"/>
-      <c r="AJ11" s="88"/>
-      <c r="AK11" s="88"/>
-      <c r="AL11" s="88"/>
-      <c r="AM11" s="88"/>
-      <c r="AN11" s="88"/>
-      <c r="AO11" s="89"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="103"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="103"/>
+      <c r="X11" s="103"/>
+      <c r="Y11" s="103"/>
+      <c r="Z11" s="103"/>
+      <c r="AA11" s="103"/>
+      <c r="AB11" s="103"/>
+      <c r="AC11" s="103"/>
+      <c r="AD11" s="103"/>
+      <c r="AE11" s="104"/>
+      <c r="AF11" s="99"/>
+      <c r="AG11" s="103"/>
+      <c r="AH11" s="103"/>
+      <c r="AI11" s="103"/>
+      <c r="AJ11" s="103"/>
+      <c r="AK11" s="103"/>
+      <c r="AL11" s="103"/>
+      <c r="AM11" s="103"/>
+      <c r="AN11" s="103"/>
+      <c r="AO11" s="104"/>
       <c r="AP11" s="8"/>
     </row>
     <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17679,236 +17784,236 @@
     </row>
     <row r="15" spans="1:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="127" t="s">
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="128"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="128"/>
-      <c r="Z15" s="128"/>
-      <c r="AA15" s="128"/>
-      <c r="AB15" s="128"/>
-      <c r="AC15" s="128"/>
-      <c r="AD15" s="128"/>
-      <c r="AE15" s="128"/>
-      <c r="AF15" s="128"/>
-      <c r="AG15" s="128"/>
-      <c r="AH15" s="128"/>
-      <c r="AI15" s="128"/>
-      <c r="AJ15" s="128"/>
-      <c r="AK15" s="128"/>
-      <c r="AL15" s="128"/>
-      <c r="AM15" s="128"/>
-      <c r="AN15" s="128"/>
-      <c r="AO15" s="129"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="146"/>
+      <c r="N15" s="146"/>
+      <c r="O15" s="146"/>
+      <c r="P15" s="146"/>
+      <c r="Q15" s="146"/>
+      <c r="R15" s="146"/>
+      <c r="S15" s="146"/>
+      <c r="T15" s="146"/>
+      <c r="U15" s="146"/>
+      <c r="V15" s="146"/>
+      <c r="W15" s="146"/>
+      <c r="X15" s="146"/>
+      <c r="Y15" s="146"/>
+      <c r="Z15" s="146"/>
+      <c r="AA15" s="146"/>
+      <c r="AB15" s="146"/>
+      <c r="AC15" s="146"/>
+      <c r="AD15" s="146"/>
+      <c r="AE15" s="146"/>
+      <c r="AF15" s="146"/>
+      <c r="AG15" s="146"/>
+      <c r="AH15" s="146"/>
+      <c r="AI15" s="146"/>
+      <c r="AJ15" s="146"/>
+      <c r="AK15" s="146"/>
+      <c r="AL15" s="146"/>
+      <c r="AM15" s="146"/>
+      <c r="AN15" s="146"/>
+      <c r="AO15" s="147"/>
       <c r="AP15" s="41"/>
     </row>
     <row r="16" spans="1:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="161"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="163" t="s">
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="164"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="164"/>
-      <c r="R16" s="164"/>
-      <c r="S16" s="164"/>
-      <c r="T16" s="164"/>
-      <c r="U16" s="164"/>
-      <c r="V16" s="164"/>
-      <c r="W16" s="164"/>
-      <c r="X16" s="164"/>
-      <c r="Y16" s="164"/>
-      <c r="Z16" s="164"/>
-      <c r="AA16" s="164"/>
-      <c r="AB16" s="164"/>
-      <c r="AC16" s="164"/>
-      <c r="AD16" s="164"/>
-      <c r="AE16" s="164"/>
-      <c r="AF16" s="164"/>
-      <c r="AG16" s="164"/>
-      <c r="AH16" s="164"/>
-      <c r="AI16" s="164"/>
-      <c r="AJ16" s="164"/>
-      <c r="AK16" s="164"/>
-      <c r="AL16" s="164"/>
-      <c r="AM16" s="164"/>
-      <c r="AN16" s="164"/>
-      <c r="AO16" s="165"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="130"/>
+      <c r="T16" s="130"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="130"/>
+      <c r="W16" s="130"/>
+      <c r="X16" s="130"/>
+      <c r="Y16" s="130"/>
+      <c r="Z16" s="130"/>
+      <c r="AA16" s="130"/>
+      <c r="AB16" s="130"/>
+      <c r="AC16" s="130"/>
+      <c r="AD16" s="130"/>
+      <c r="AE16" s="130"/>
+      <c r="AF16" s="130"/>
+      <c r="AG16" s="130"/>
+      <c r="AH16" s="130"/>
+      <c r="AI16" s="130"/>
+      <c r="AJ16" s="130"/>
+      <c r="AK16" s="130"/>
+      <c r="AL16" s="130"/>
+      <c r="AM16" s="130"/>
+      <c r="AN16" s="130"/>
+      <c r="AO16" s="131"/>
       <c r="AP16" s="41"/>
     </row>
     <row r="17" spans="1:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="160" t="s">
+      <c r="B17" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="161"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
-      <c r="L17" s="167"/>
-      <c r="M17" s="167"/>
-      <c r="N17" s="167"/>
-      <c r="O17" s="167"/>
-      <c r="P17" s="167"/>
-      <c r="Q17" s="167"/>
-      <c r="R17" s="167"/>
-      <c r="S17" s="167"/>
-      <c r="T17" s="167"/>
-      <c r="U17" s="167"/>
-      <c r="V17" s="167"/>
-      <c r="W17" s="167"/>
-      <c r="X17" s="167"/>
-      <c r="Y17" s="167"/>
-      <c r="Z17" s="167"/>
-      <c r="AA17" s="167"/>
-      <c r="AB17" s="167"/>
-      <c r="AC17" s="167"/>
-      <c r="AD17" s="167"/>
-      <c r="AE17" s="167"/>
-      <c r="AF17" s="167"/>
-      <c r="AG17" s="167"/>
-      <c r="AH17" s="167"/>
-      <c r="AI17" s="167"/>
-      <c r="AJ17" s="167"/>
-      <c r="AK17" s="167"/>
-      <c r="AL17" s="167"/>
-      <c r="AM17" s="167"/>
-      <c r="AN17" s="167"/>
-      <c r="AO17" s="168"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="133"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="133"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="133"/>
+      <c r="T17" s="133"/>
+      <c r="U17" s="133"/>
+      <c r="V17" s="133"/>
+      <c r="W17" s="133"/>
+      <c r="X17" s="133"/>
+      <c r="Y17" s="133"/>
+      <c r="Z17" s="133"/>
+      <c r="AA17" s="133"/>
+      <c r="AB17" s="133"/>
+      <c r="AC17" s="133"/>
+      <c r="AD17" s="133"/>
+      <c r="AE17" s="133"/>
+      <c r="AF17" s="133"/>
+      <c r="AG17" s="133"/>
+      <c r="AH17" s="133"/>
+      <c r="AI17" s="133"/>
+      <c r="AJ17" s="133"/>
+      <c r="AK17" s="133"/>
+      <c r="AL17" s="133"/>
+      <c r="AM17" s="133"/>
+      <c r="AN17" s="133"/>
+      <c r="AO17" s="134"/>
       <c r="AP17" s="41"/>
     </row>
     <row r="18" spans="1:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="161"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="135"/>
-      <c r="R18" s="135"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="135"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="135"/>
-      <c r="W18" s="135"/>
-      <c r="X18" s="135"/>
-      <c r="Y18" s="135"/>
-      <c r="Z18" s="135"/>
-      <c r="AA18" s="135"/>
-      <c r="AB18" s="135"/>
-      <c r="AC18" s="135"/>
-      <c r="AD18" s="135"/>
-      <c r="AE18" s="135"/>
-      <c r="AF18" s="135"/>
-      <c r="AG18" s="135"/>
-      <c r="AH18" s="135"/>
-      <c r="AI18" s="135"/>
-      <c r="AJ18" s="135"/>
-      <c r="AK18" s="135"/>
-      <c r="AL18" s="135"/>
-      <c r="AM18" s="135"/>
-      <c r="AN18" s="135"/>
-      <c r="AO18" s="136"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="151"/>
+      <c r="T18" s="151"/>
+      <c r="U18" s="151"/>
+      <c r="V18" s="151"/>
+      <c r="W18" s="151"/>
+      <c r="X18" s="151"/>
+      <c r="Y18" s="151"/>
+      <c r="Z18" s="151"/>
+      <c r="AA18" s="151"/>
+      <c r="AB18" s="151"/>
+      <c r="AC18" s="151"/>
+      <c r="AD18" s="151"/>
+      <c r="AE18" s="151"/>
+      <c r="AF18" s="151"/>
+      <c r="AG18" s="151"/>
+      <c r="AH18" s="151"/>
+      <c r="AI18" s="151"/>
+      <c r="AJ18" s="151"/>
+      <c r="AK18" s="151"/>
+      <c r="AL18" s="151"/>
+      <c r="AM18" s="151"/>
+      <c r="AN18" s="151"/>
+      <c r="AO18" s="152"/>
       <c r="AP18" s="42"/>
     </row>
     <row r="19" spans="1:42" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="154" t="s">
+      <c r="B19" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="158"/>
-      <c r="S19" s="158"/>
-      <c r="T19" s="158"/>
-      <c r="U19" s="158"/>
-      <c r="V19" s="158"/>
-      <c r="W19" s="158"/>
-      <c r="X19" s="158"/>
-      <c r="Y19" s="158"/>
-      <c r="Z19" s="158"/>
-      <c r="AA19" s="158"/>
-      <c r="AB19" s="158"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="158"/>
-      <c r="AF19" s="158"/>
-      <c r="AG19" s="158"/>
-      <c r="AH19" s="158"/>
-      <c r="AI19" s="158"/>
-      <c r="AJ19" s="158"/>
-      <c r="AK19" s="158"/>
-      <c r="AL19" s="158"/>
-      <c r="AM19" s="158"/>
-      <c r="AN19" s="158"/>
-      <c r="AO19" s="159"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="124"/>
+      <c r="S19" s="124"/>
+      <c r="T19" s="124"/>
+      <c r="U19" s="124"/>
+      <c r="V19" s="124"/>
+      <c r="W19" s="124"/>
+      <c r="X19" s="124"/>
+      <c r="Y19" s="124"/>
+      <c r="Z19" s="124"/>
+      <c r="AA19" s="124"/>
+      <c r="AB19" s="124"/>
+      <c r="AC19" s="124"/>
+      <c r="AD19" s="124"/>
+      <c r="AE19" s="124"/>
+      <c r="AF19" s="124"/>
+      <c r="AG19" s="124"/>
+      <c r="AH19" s="124"/>
+      <c r="AI19" s="124"/>
+      <c r="AJ19" s="124"/>
+      <c r="AK19" s="124"/>
+      <c r="AL19" s="124"/>
+      <c r="AM19" s="124"/>
+      <c r="AN19" s="124"/>
+      <c r="AO19" s="125"/>
       <c r="AP19" s="42"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.2">
@@ -17995,34 +18100,34 @@
       <c r="E22" s="3"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
-      <c r="J22" s="144" t="s">
+      <c r="J22" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="145"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="145"/>
-      <c r="N22" s="145"/>
-      <c r="O22" s="145"/>
-      <c r="P22" s="145"/>
-      <c r="Q22" s="145"/>
-      <c r="R22" s="145"/>
-      <c r="S22" s="145"/>
-      <c r="T22" s="145"/>
-      <c r="U22" s="145"/>
-      <c r="V22" s="145"/>
-      <c r="W22" s="145"/>
-      <c r="X22" s="145"/>
-      <c r="Y22" s="145"/>
-      <c r="Z22" s="145"/>
-      <c r="AA22" s="145"/>
-      <c r="AB22" s="145"/>
-      <c r="AC22" s="145"/>
-      <c r="AD22" s="145"/>
-      <c r="AE22" s="145"/>
-      <c r="AF22" s="145"/>
-      <c r="AG22" s="145"/>
-      <c r="AH22" s="145"/>
-      <c r="AI22" s="146"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="106"/>
+      <c r="S22" s="106"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="106"/>
+      <c r="W22" s="106"/>
+      <c r="X22" s="106"/>
+      <c r="Y22" s="106"/>
+      <c r="Z22" s="106"/>
+      <c r="AA22" s="106"/>
+      <c r="AB22" s="106"/>
+      <c r="AC22" s="106"/>
+      <c r="AD22" s="106"/>
+      <c r="AE22" s="106"/>
+      <c r="AF22" s="106"/>
+      <c r="AG22" s="106"/>
+      <c r="AH22" s="106"/>
+      <c r="AI22" s="107"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
@@ -18128,277 +18233,277 @@
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B27" s="147" t="s">
+      <c r="B27" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="148"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="150" t="s">
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="151"/>
-      <c r="Q27" s="151"/>
-      <c r="R27" s="151"/>
-      <c r="S27" s="151"/>
-      <c r="T27" s="151"/>
-      <c r="U27" s="151"/>
-      <c r="V27" s="151"/>
-      <c r="W27" s="151"/>
-      <c r="X27" s="151"/>
-      <c r="Y27" s="151"/>
-      <c r="Z27" s="151"/>
-      <c r="AA27" s="151"/>
-      <c r="AB27" s="151"/>
-      <c r="AC27" s="151"/>
-      <c r="AD27" s="151"/>
-      <c r="AE27" s="151"/>
-      <c r="AF27" s="151"/>
-      <c r="AG27" s="151"/>
-      <c r="AH27" s="151"/>
-      <c r="AI27" s="151"/>
-      <c r="AJ27" s="151"/>
-      <c r="AK27" s="151"/>
-      <c r="AL27" s="151"/>
-      <c r="AM27" s="151"/>
-      <c r="AN27" s="151"/>
-      <c r="AO27" s="152"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="112"/>
+      <c r="S27" s="112"/>
+      <c r="T27" s="112"/>
+      <c r="U27" s="112"/>
+      <c r="V27" s="112"/>
+      <c r="W27" s="112"/>
+      <c r="X27" s="112"/>
+      <c r="Y27" s="112"/>
+      <c r="Z27" s="112"/>
+      <c r="AA27" s="112"/>
+      <c r="AB27" s="112"/>
+      <c r="AC27" s="112"/>
+      <c r="AD27" s="112"/>
+      <c r="AE27" s="112"/>
+      <c r="AF27" s="112"/>
+      <c r="AG27" s="112"/>
+      <c r="AH27" s="112"/>
+      <c r="AI27" s="112"/>
+      <c r="AJ27" s="112"/>
+      <c r="AK27" s="112"/>
+      <c r="AL27" s="112"/>
+      <c r="AM27" s="112"/>
+      <c r="AN27" s="112"/>
+      <c r="AO27" s="113"/>
       <c r="AP27" s="5"/>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="111" t="s">
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="112"/>
-      <c r="U28" s="112"/>
-      <c r="V28" s="112"/>
-      <c r="W28" s="112"/>
-      <c r="X28" s="112"/>
-      <c r="Y28" s="112"/>
-      <c r="Z28" s="112"/>
-      <c r="AA28" s="112"/>
-      <c r="AB28" s="112"/>
-      <c r="AC28" s="112"/>
-      <c r="AD28" s="112"/>
-      <c r="AE28" s="112"/>
-      <c r="AF28" s="112"/>
-      <c r="AG28" s="112"/>
-      <c r="AH28" s="112"/>
-      <c r="AI28" s="112"/>
-      <c r="AJ28" s="112"/>
-      <c r="AK28" s="112"/>
-      <c r="AL28" s="112"/>
-      <c r="AM28" s="112"/>
-      <c r="AN28" s="112"/>
-      <c r="AO28" s="113"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="100"/>
+      <c r="V28" s="100"/>
+      <c r="W28" s="100"/>
+      <c r="X28" s="100"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="100"/>
+      <c r="AB28" s="100"/>
+      <c r="AC28" s="100"/>
+      <c r="AD28" s="100"/>
+      <c r="AE28" s="100"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="100"/>
+      <c r="AH28" s="100"/>
+      <c r="AI28" s="100"/>
+      <c r="AJ28" s="100"/>
+      <c r="AK28" s="100"/>
+      <c r="AL28" s="100"/>
+      <c r="AM28" s="100"/>
+      <c r="AN28" s="100"/>
+      <c r="AO28" s="101"/>
       <c r="AP28" s="5"/>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="112"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="112"/>
-      <c r="W29" s="112"/>
-      <c r="X29" s="112"/>
-      <c r="Y29" s="112"/>
-      <c r="Z29" s="112"/>
-      <c r="AA29" s="112"/>
-      <c r="AB29" s="112"/>
-      <c r="AC29" s="112"/>
-      <c r="AD29" s="112"/>
-      <c r="AE29" s="112"/>
-      <c r="AF29" s="112"/>
-      <c r="AG29" s="112"/>
-      <c r="AH29" s="112"/>
-      <c r="AI29" s="112"/>
-      <c r="AJ29" s="112"/>
-      <c r="AK29" s="112"/>
-      <c r="AL29" s="112"/>
-      <c r="AM29" s="112"/>
-      <c r="AN29" s="112"/>
-      <c r="AO29" s="113"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="100"/>
+      <c r="T29" s="100"/>
+      <c r="U29" s="100"/>
+      <c r="V29" s="100"/>
+      <c r="W29" s="100"/>
+      <c r="X29" s="100"/>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="100"/>
+      <c r="AA29" s="100"/>
+      <c r="AB29" s="100"/>
+      <c r="AC29" s="100"/>
+      <c r="AD29" s="100"/>
+      <c r="AE29" s="100"/>
+      <c r="AF29" s="100"/>
+      <c r="AG29" s="100"/>
+      <c r="AH29" s="100"/>
+      <c r="AI29" s="100"/>
+      <c r="AJ29" s="100"/>
+      <c r="AK29" s="100"/>
+      <c r="AL29" s="100"/>
+      <c r="AM29" s="100"/>
+      <c r="AN29" s="100"/>
+      <c r="AO29" s="101"/>
       <c r="AP29" s="5"/>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="112"/>
-      <c r="S30" s="112"/>
-      <c r="T30" s="112"/>
-      <c r="U30" s="112"/>
-      <c r="V30" s="112"/>
-      <c r="W30" s="112"/>
-      <c r="X30" s="112"/>
-      <c r="Y30" s="112"/>
-      <c r="Z30" s="112"/>
-      <c r="AA30" s="112"/>
-      <c r="AB30" s="112"/>
-      <c r="AC30" s="112"/>
-      <c r="AD30" s="112"/>
-      <c r="AE30" s="112"/>
-      <c r="AF30" s="112"/>
-      <c r="AG30" s="112"/>
-      <c r="AH30" s="112"/>
-      <c r="AI30" s="112"/>
-      <c r="AJ30" s="112"/>
-      <c r="AK30" s="112"/>
-      <c r="AL30" s="112"/>
-      <c r="AM30" s="112"/>
-      <c r="AN30" s="112"/>
-      <c r="AO30" s="113"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="100"/>
+      <c r="S30" s="100"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="100"/>
+      <c r="V30" s="100"/>
+      <c r="W30" s="100"/>
+      <c r="X30" s="100"/>
+      <c r="Y30" s="100"/>
+      <c r="Z30" s="100"/>
+      <c r="AA30" s="100"/>
+      <c r="AB30" s="100"/>
+      <c r="AC30" s="100"/>
+      <c r="AD30" s="100"/>
+      <c r="AE30" s="100"/>
+      <c r="AF30" s="100"/>
+      <c r="AG30" s="100"/>
+      <c r="AH30" s="100"/>
+      <c r="AI30" s="100"/>
+      <c r="AJ30" s="100"/>
+      <c r="AK30" s="100"/>
+      <c r="AL30" s="100"/>
+      <c r="AM30" s="100"/>
+      <c r="AN30" s="100"/>
+      <c r="AO30" s="101"/>
       <c r="AP30" s="5"/>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B31" s="108" t="s">
+      <c r="B31" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="112"/>
-      <c r="S31" s="112"/>
-      <c r="T31" s="112"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="112"/>
-      <c r="W31" s="112"/>
-      <c r="X31" s="112"/>
-      <c r="Y31" s="112"/>
-      <c r="Z31" s="112"/>
-      <c r="AA31" s="112"/>
-      <c r="AB31" s="112"/>
-      <c r="AC31" s="112"/>
-      <c r="AD31" s="112"/>
-      <c r="AE31" s="112"/>
-      <c r="AF31" s="112"/>
-      <c r="AG31" s="112"/>
-      <c r="AH31" s="112"/>
-      <c r="AI31" s="112"/>
-      <c r="AJ31" s="112"/>
-      <c r="AK31" s="112"/>
-      <c r="AL31" s="112"/>
-      <c r="AM31" s="112"/>
-      <c r="AN31" s="112"/>
-      <c r="AO31" s="113"/>
+      <c r="C31" s="169"/>
+      <c r="D31" s="169"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="100"/>
+      <c r="S31" s="100"/>
+      <c r="T31" s="100"/>
+      <c r="U31" s="100"/>
+      <c r="V31" s="100"/>
+      <c r="W31" s="100"/>
+      <c r="X31" s="100"/>
+      <c r="Y31" s="100"/>
+      <c r="Z31" s="100"/>
+      <c r="AA31" s="100"/>
+      <c r="AB31" s="100"/>
+      <c r="AC31" s="100"/>
+      <c r="AD31" s="100"/>
+      <c r="AE31" s="100"/>
+      <c r="AF31" s="100"/>
+      <c r="AG31" s="100"/>
+      <c r="AH31" s="100"/>
+      <c r="AI31" s="100"/>
+      <c r="AJ31" s="100"/>
+      <c r="AK31" s="100"/>
+      <c r="AL31" s="100"/>
+      <c r="AM31" s="100"/>
+      <c r="AN31" s="100"/>
+      <c r="AO31" s="101"/>
       <c r="AP31" s="5"/>
     </row>
     <row r="32" spans="1:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="94"/>
-      <c r="AE32" s="94"/>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="94"/>
-      <c r="AH32" s="94"/>
-      <c r="AI32" s="94"/>
-      <c r="AJ32" s="94"/>
-      <c r="AK32" s="94"/>
-      <c r="AL32" s="94"/>
-      <c r="AM32" s="94"/>
-      <c r="AN32" s="94"/>
-      <c r="AO32" s="95"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="157"/>
+      <c r="M32" s="157"/>
+      <c r="N32" s="157"/>
+      <c r="O32" s="157"/>
+      <c r="P32" s="157"/>
+      <c r="Q32" s="157"/>
+      <c r="R32" s="157"/>
+      <c r="S32" s="157"/>
+      <c r="T32" s="157"/>
+      <c r="U32" s="157"/>
+      <c r="V32" s="157"/>
+      <c r="W32" s="157"/>
+      <c r="X32" s="157"/>
+      <c r="Y32" s="157"/>
+      <c r="Z32" s="157"/>
+      <c r="AA32" s="157"/>
+      <c r="AB32" s="157"/>
+      <c r="AC32" s="157"/>
+      <c r="AD32" s="157"/>
+      <c r="AE32" s="157"/>
+      <c r="AF32" s="157"/>
+      <c r="AG32" s="157"/>
+      <c r="AH32" s="157"/>
+      <c r="AI32" s="157"/>
+      <c r="AJ32" s="157"/>
+      <c r="AK32" s="157"/>
+      <c r="AL32" s="157"/>
+      <c r="AM32" s="157"/>
+      <c r="AN32" s="157"/>
+      <c r="AO32" s="158"/>
       <c r="AP32" s="5"/>
     </row>
     <row r="33" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -18619,24 +18724,24 @@
     </row>
     <row r="38" spans="1:85" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="99" t="s">
+      <c r="C38" s="160"/>
+      <c r="D38" s="160"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I38" s="100"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="102" t="s">
+      <c r="I38" s="81"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="L38" s="103"/>
-      <c r="M38" s="104"/>
+      <c r="L38" s="163"/>
+      <c r="M38" s="164"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
@@ -18669,25 +18774,25 @@
     </row>
     <row r="39" spans="1:85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="169">
+      <c r="C39" s="166"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="166"/>
+      <c r="G39" s="167"/>
+      <c r="H39" s="89">
         <v>0</v>
       </c>
-      <c r="I39" s="170"/>
-      <c r="J39" s="171"/>
-      <c r="K39" s="79">
+      <c r="I39" s="90"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="83">
         <f>ROUND((H39/$H$42)*100,0)</f>
         <v>0</v>
       </c>
-      <c r="L39" s="80"/>
-      <c r="M39" s="81"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="85"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -18720,25 +18825,25 @@
     </row>
     <row r="40" spans="1:85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
-      <c r="B40" s="114" t="s">
+      <c r="B40" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="117">
+      <c r="C40" s="136"/>
+      <c r="D40" s="136"/>
+      <c r="E40" s="136"/>
+      <c r="F40" s="136"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="138">
         <v>0</v>
       </c>
-      <c r="I40" s="118"/>
-      <c r="J40" s="119"/>
-      <c r="K40" s="79">
+      <c r="I40" s="139"/>
+      <c r="J40" s="140"/>
+      <c r="K40" s="83">
         <f>ROUND((H40/$H$42)*100,0)</f>
         <v>0</v>
       </c>
-      <c r="L40" s="80"/>
-      <c r="M40" s="81"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="85"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -18771,25 +18876,25 @@
     </row>
     <row r="41" spans="1:85" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="76">
+      <c r="C41" s="172"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="173"/>
+      <c r="H41" s="174">
         <v>9</v>
       </c>
-      <c r="I41" s="77"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="79">
+      <c r="I41" s="175"/>
+      <c r="J41" s="176"/>
+      <c r="K41" s="83">
         <f>ROUND((H41/$H$42)*100,0)</f>
         <v>100</v>
       </c>
-      <c r="L41" s="80"/>
-      <c r="M41" s="81"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="85"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -18822,26 +18927,26 @@
     </row>
     <row r="42" spans="1:85" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
-      <c r="B42" s="174" t="s">
+      <c r="B42" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="175"/>
-      <c r="D42" s="175"/>
-      <c r="E42" s="175"/>
-      <c r="F42" s="175"/>
-      <c r="G42" s="176"/>
-      <c r="H42" s="99">
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="80">
         <f>SUM(H39:J41)</f>
         <v>9</v>
       </c>
-      <c r="I42" s="100"/>
-      <c r="J42" s="101"/>
-      <c r="K42" s="79">
+      <c r="I42" s="81"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="83">
         <f>ROUND((H42/$H$42)*100,0)</f>
         <v>100</v>
       </c>
-      <c r="L42" s="80"/>
-      <c r="M42" s="81"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="85"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -18993,1169 +19098,1169 @@
       <c r="AN45" s="5"/>
       <c r="AO45" s="5"/>
       <c r="AP45" s="5"/>
-      <c r="CE45" s="181"/>
-      <c r="CF45" s="181"/>
-      <c r="CG45" s="181"/>
+      <c r="CE45" s="58"/>
+      <c r="CF45" s="58"/>
+      <c r="CG45" s="58"/>
     </row>
     <row r="46" spans="1:85" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="177" t="s">
+      <c r="B46" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="178"/>
-      <c r="D46" s="82" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="178"/>
-      <c r="F46" s="82" t="s">
+      <c r="E46" s="78"/>
+      <c r="F46" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82" t="s">
+      <c r="G46" s="76"/>
+      <c r="H46" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82" t="s">
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82" t="s">
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
+      <c r="N46" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="O46" s="82"/>
-      <c r="P46" s="82"/>
-      <c r="Q46" s="82" t="s">
+      <c r="O46" s="76"/>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="R46" s="82"/>
-      <c r="S46" s="82" t="s">
+      <c r="R46" s="76"/>
+      <c r="S46" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="T46" s="82"/>
-      <c r="U46" s="82"/>
-      <c r="V46" s="82"/>
-      <c r="W46" s="82"/>
-      <c r="X46" s="82"/>
-      <c r="Y46" s="82" t="s">
+      <c r="T46" s="76"/>
+      <c r="U46" s="76"/>
+      <c r="V46" s="76"/>
+      <c r="W46" s="76"/>
+      <c r="X46" s="76"/>
+      <c r="Y46" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="Z46" s="82"/>
-      <c r="AA46" s="82"/>
-      <c r="AB46" s="82"/>
-      <c r="AC46" s="82"/>
-      <c r="AD46" s="82"/>
-      <c r="AE46" s="82"/>
-      <c r="AF46" s="82"/>
-      <c r="AG46" s="82"/>
-      <c r="AH46" s="82"/>
-      <c r="AI46" s="82"/>
-      <c r="AJ46" s="82"/>
-      <c r="AK46" s="82"/>
-      <c r="AL46" s="82"/>
-      <c r="AM46" s="82"/>
-      <c r="AN46" s="82"/>
-      <c r="AO46" s="82"/>
+      <c r="Z46" s="76"/>
+      <c r="AA46" s="76"/>
+      <c r="AB46" s="76"/>
+      <c r="AC46" s="76"/>
+      <c r="AD46" s="76"/>
+      <c r="AE46" s="76"/>
+      <c r="AF46" s="76"/>
+      <c r="AG46" s="76"/>
+      <c r="AH46" s="76"/>
+      <c r="AI46" s="76"/>
+      <c r="AJ46" s="76"/>
+      <c r="AK46" s="76"/>
+      <c r="AL46" s="76"/>
+      <c r="AM46" s="76"/>
+      <c r="AN46" s="76"/>
+      <c r="AO46" s="76"/>
       <c r="AP46" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AQ46" s="82" t="s">
+      <c r="AQ46" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="AR46" s="82"/>
-      <c r="AS46" s="82"/>
-      <c r="AT46" s="82"/>
-      <c r="AU46" s="82"/>
-      <c r="AV46" s="82"/>
-      <c r="AW46" s="82"/>
-      <c r="AX46" s="82"/>
-      <c r="AY46" s="82" t="s">
+      <c r="AR46" s="76"/>
+      <c r="AS46" s="76"/>
+      <c r="AT46" s="76"/>
+      <c r="AU46" s="76"/>
+      <c r="AV46" s="76"/>
+      <c r="AW46" s="76"/>
+      <c r="AX46" s="76"/>
+      <c r="AY46" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AZ46" s="82"/>
-      <c r="BA46" s="82"/>
-      <c r="BB46" s="82"/>
-      <c r="BC46" s="82"/>
-      <c r="BD46" s="82"/>
-      <c r="BE46" s="82"/>
-      <c r="BF46" s="82" t="s">
+      <c r="AZ46" s="76"/>
+      <c r="BA46" s="76"/>
+      <c r="BB46" s="76"/>
+      <c r="BC46" s="76"/>
+      <c r="BD46" s="76"/>
+      <c r="BE46" s="76"/>
+      <c r="BF46" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="BG46" s="82"/>
-      <c r="BH46" s="82"/>
-      <c r="BI46" s="82"/>
-      <c r="BJ46" s="82"/>
-      <c r="BK46" s="82"/>
-      <c r="BL46" s="82"/>
-      <c r="BM46" s="82"/>
-      <c r="BN46" s="82"/>
-      <c r="BO46" s="82"/>
-      <c r="BP46" s="82" t="s">
+      <c r="BG46" s="76"/>
+      <c r="BH46" s="76"/>
+      <c r="BI46" s="76"/>
+      <c r="BJ46" s="76"/>
+      <c r="BK46" s="76"/>
+      <c r="BL46" s="76"/>
+      <c r="BM46" s="76"/>
+      <c r="BN46" s="76"/>
+      <c r="BO46" s="76"/>
+      <c r="BP46" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="BQ46" s="82"/>
-      <c r="BR46" s="82"/>
-      <c r="BS46" s="82"/>
-      <c r="BT46" s="82"/>
-      <c r="BU46" s="82"/>
-      <c r="BV46" s="82"/>
-      <c r="BW46" s="82"/>
-      <c r="BX46" s="82"/>
-      <c r="BY46" s="82"/>
-      <c r="BZ46" s="82"/>
-      <c r="CA46" s="82"/>
-      <c r="CB46" s="82"/>
-      <c r="CC46" s="82"/>
-      <c r="CD46" s="82"/>
-      <c r="CE46" s="82" t="s">
+      <c r="BQ46" s="76"/>
+      <c r="BR46" s="76"/>
+      <c r="BS46" s="76"/>
+      <c r="BT46" s="76"/>
+      <c r="BU46" s="76"/>
+      <c r="BV46" s="76"/>
+      <c r="BW46" s="76"/>
+      <c r="BX46" s="76"/>
+      <c r="BY46" s="76"/>
+      <c r="BZ46" s="76"/>
+      <c r="CA46" s="76"/>
+      <c r="CB46" s="76"/>
+      <c r="CC46" s="76"/>
+      <c r="CD46" s="76"/>
+      <c r="CE46" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="CF46" s="82"/>
-      <c r="CG46" s="83"/>
+      <c r="CF46" s="76"/>
+      <c r="CG46" s="177"/>
     </row>
     <row r="47" spans="1:85" ht="151.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="63" t="s">
+      <c r="B47" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="64"/>
-      <c r="D47" s="57" t="s">
+      <c r="C47" s="196"/>
+      <c r="D47" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="64"/>
-      <c r="F47" s="60" t="s">
+      <c r="E47" s="196"/>
+      <c r="F47" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="65" t="s">
+      <c r="G47" s="199" t="s">
         <v>56</v>
       </c>
-      <c r="H47" s="60" t="s">
+      <c r="H47" s="198" t="s">
         <v>126</v>
       </c>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="64">
+      <c r="I47" s="199"/>
+      <c r="J47" s="199"/>
+      <c r="K47" s="196">
         <v>1</v>
       </c>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64">
+      <c r="L47" s="196"/>
+      <c r="M47" s="196"/>
+      <c r="N47" s="196">
         <v>1</v>
       </c>
-      <c r="O47" s="64"/>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="64">
+      <c r="O47" s="196"/>
+      <c r="P47" s="196"/>
+      <c r="Q47" s="196">
         <v>3</v>
       </c>
-      <c r="R47" s="64"/>
-      <c r="S47" s="66" t="s">
+      <c r="R47" s="196"/>
+      <c r="S47" s="200" t="s">
         <v>131</v>
       </c>
-      <c r="T47" s="67"/>
-      <c r="U47" s="67"/>
-      <c r="V47" s="67"/>
-      <c r="W47" s="67"/>
-      <c r="X47" s="68"/>
-      <c r="Y47" s="58" t="s">
+      <c r="T47" s="201"/>
+      <c r="U47" s="201"/>
+      <c r="V47" s="201"/>
+      <c r="W47" s="201"/>
+      <c r="X47" s="202"/>
+      <c r="Y47" s="203" t="s">
         <v>146</v>
       </c>
-      <c r="Z47" s="69"/>
-      <c r="AA47" s="69"/>
-      <c r="AB47" s="69"/>
-      <c r="AC47" s="69"/>
-      <c r="AD47" s="69"/>
-      <c r="AE47" s="69"/>
-      <c r="AF47" s="69"/>
-      <c r="AG47" s="69"/>
-      <c r="AH47" s="69"/>
-      <c r="AI47" s="69"/>
-      <c r="AJ47" s="69"/>
-      <c r="AK47" s="69"/>
-      <c r="AL47" s="69"/>
-      <c r="AM47" s="69"/>
-      <c r="AN47" s="69"/>
-      <c r="AO47" s="69"/>
-      <c r="AP47" s="44" t="s">
+      <c r="Z47" s="204"/>
+      <c r="AA47" s="204"/>
+      <c r="AB47" s="204"/>
+      <c r="AC47" s="204"/>
+      <c r="AD47" s="204"/>
+      <c r="AE47" s="204"/>
+      <c r="AF47" s="204"/>
+      <c r="AG47" s="204"/>
+      <c r="AH47" s="204"/>
+      <c r="AI47" s="204"/>
+      <c r="AJ47" s="204"/>
+      <c r="AK47" s="204"/>
+      <c r="AL47" s="204"/>
+      <c r="AM47" s="204"/>
+      <c r="AN47" s="204"/>
+      <c r="AO47" s="204"/>
+      <c r="AP47" s="205" t="s">
         <v>127</v>
       </c>
-      <c r="AQ47" s="70" t="s">
+      <c r="AQ47" s="206" t="s">
         <v>141</v>
       </c>
-      <c r="AR47" s="71"/>
-      <c r="AS47" s="71"/>
-      <c r="AT47" s="71"/>
-      <c r="AU47" s="71"/>
-      <c r="AV47" s="71"/>
-      <c r="AW47" s="71"/>
-      <c r="AX47" s="72"/>
-      <c r="AY47" s="62" t="s">
+      <c r="AR47" s="207"/>
+      <c r="AS47" s="207"/>
+      <c r="AT47" s="207"/>
+      <c r="AU47" s="207"/>
+      <c r="AV47" s="207"/>
+      <c r="AW47" s="207"/>
+      <c r="AX47" s="208"/>
+      <c r="AY47" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="AZ47" s="59"/>
-      <c r="BA47" s="59"/>
-      <c r="BB47" s="59"/>
-      <c r="BC47" s="59"/>
-      <c r="BD47" s="59"/>
-      <c r="BE47" s="59"/>
-      <c r="BF47" s="58" t="s">
+      <c r="AZ47" s="210"/>
+      <c r="BA47" s="210"/>
+      <c r="BB47" s="210"/>
+      <c r="BC47" s="210"/>
+      <c r="BD47" s="210"/>
+      <c r="BE47" s="210"/>
+      <c r="BF47" s="203" t="s">
         <v>151</v>
       </c>
-      <c r="BG47" s="59"/>
-      <c r="BH47" s="59"/>
-      <c r="BI47" s="59"/>
-      <c r="BJ47" s="59"/>
-      <c r="BK47" s="59"/>
-      <c r="BL47" s="59"/>
-      <c r="BM47" s="59"/>
-      <c r="BN47" s="59"/>
-      <c r="BO47" s="59"/>
-      <c r="BP47" s="84" t="s">
-        <v>159</v>
-      </c>
-      <c r="BQ47" s="85"/>
-      <c r="BR47" s="85"/>
-      <c r="BS47" s="85"/>
-      <c r="BT47" s="85"/>
-      <c r="BU47" s="85"/>
-      <c r="BV47" s="85"/>
-      <c r="BW47" s="85"/>
-      <c r="BX47" s="85"/>
-      <c r="BY47" s="85"/>
-      <c r="BZ47" s="85"/>
-      <c r="CA47" s="85"/>
-      <c r="CB47" s="85"/>
-      <c r="CC47" s="85"/>
-      <c r="CD47" s="86"/>
-      <c r="CE47" s="60"/>
-      <c r="CF47" s="57"/>
-      <c r="CG47" s="61"/>
+      <c r="BG47" s="210"/>
+      <c r="BH47" s="210"/>
+      <c r="BI47" s="210"/>
+      <c r="BJ47" s="210"/>
+      <c r="BK47" s="210"/>
+      <c r="BL47" s="210"/>
+      <c r="BM47" s="210"/>
+      <c r="BN47" s="210"/>
+      <c r="BO47" s="210"/>
+      <c r="BP47" s="211" t="s">
+        <v>158</v>
+      </c>
+      <c r="BQ47" s="212"/>
+      <c r="BR47" s="212"/>
+      <c r="BS47" s="212"/>
+      <c r="BT47" s="212"/>
+      <c r="BU47" s="212"/>
+      <c r="BV47" s="212"/>
+      <c r="BW47" s="212"/>
+      <c r="BX47" s="212"/>
+      <c r="BY47" s="212"/>
+      <c r="BZ47" s="212"/>
+      <c r="CA47" s="212"/>
+      <c r="CB47" s="212"/>
+      <c r="CC47" s="212"/>
+      <c r="CD47" s="213"/>
+      <c r="CE47" s="68"/>
+      <c r="CF47" s="59"/>
+      <c r="CG47" s="69"/>
     </row>
     <row r="48" spans="1:85" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="195" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="64"/>
-      <c r="D48" s="57" t="s">
+      <c r="C48" s="196"/>
+      <c r="D48" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="64"/>
-      <c r="F48" s="60" t="s">
+      <c r="E48" s="196"/>
+      <c r="F48" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="65" t="s">
+      <c r="G48" s="199" t="s">
         <v>56</v>
       </c>
-      <c r="H48" s="60" t="s">
+      <c r="H48" s="198" t="s">
         <v>126</v>
       </c>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="64">
+      <c r="I48" s="199"/>
+      <c r="J48" s="199"/>
+      <c r="K48" s="196">
         <v>1</v>
       </c>
-      <c r="L48" s="64"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="64">
+      <c r="L48" s="196"/>
+      <c r="M48" s="196"/>
+      <c r="N48" s="196">
         <v>1</v>
       </c>
-      <c r="O48" s="64"/>
-      <c r="P48" s="64"/>
-      <c r="Q48" s="64">
+      <c r="O48" s="196"/>
+      <c r="P48" s="196"/>
+      <c r="Q48" s="196">
         <v>3</v>
       </c>
-      <c r="R48" s="64"/>
-      <c r="S48" s="66" t="s">
+      <c r="R48" s="196"/>
+      <c r="S48" s="200" t="s">
         <v>132</v>
       </c>
-      <c r="T48" s="67"/>
-      <c r="U48" s="67"/>
-      <c r="V48" s="67"/>
-      <c r="W48" s="67"/>
-      <c r="X48" s="68"/>
-      <c r="Y48" s="58" t="s">
+      <c r="T48" s="201"/>
+      <c r="U48" s="201"/>
+      <c r="V48" s="201"/>
+      <c r="W48" s="201"/>
+      <c r="X48" s="202"/>
+      <c r="Y48" s="203" t="s">
         <v>146</v>
       </c>
-      <c r="Z48" s="69"/>
-      <c r="AA48" s="69"/>
-      <c r="AB48" s="69"/>
-      <c r="AC48" s="69"/>
-      <c r="AD48" s="69"/>
-      <c r="AE48" s="69"/>
-      <c r="AF48" s="69"/>
-      <c r="AG48" s="69"/>
-      <c r="AH48" s="69"/>
-      <c r="AI48" s="69"/>
-      <c r="AJ48" s="69"/>
-      <c r="AK48" s="69"/>
-      <c r="AL48" s="69"/>
-      <c r="AM48" s="69"/>
-      <c r="AN48" s="69"/>
-      <c r="AO48" s="69"/>
-      <c r="AP48" s="44" t="s">
+      <c r="Z48" s="204"/>
+      <c r="AA48" s="204"/>
+      <c r="AB48" s="204"/>
+      <c r="AC48" s="204"/>
+      <c r="AD48" s="204"/>
+      <c r="AE48" s="204"/>
+      <c r="AF48" s="204"/>
+      <c r="AG48" s="204"/>
+      <c r="AH48" s="204"/>
+      <c r="AI48" s="204"/>
+      <c r="AJ48" s="204"/>
+      <c r="AK48" s="204"/>
+      <c r="AL48" s="204"/>
+      <c r="AM48" s="204"/>
+      <c r="AN48" s="204"/>
+      <c r="AO48" s="204"/>
+      <c r="AP48" s="205" t="s">
         <v>127</v>
       </c>
-      <c r="AQ48" s="70" t="s">
+      <c r="AQ48" s="206" t="s">
         <v>141</v>
       </c>
-      <c r="AR48" s="71"/>
-      <c r="AS48" s="71"/>
-      <c r="AT48" s="71"/>
-      <c r="AU48" s="71"/>
-      <c r="AV48" s="71"/>
-      <c r="AW48" s="71"/>
-      <c r="AX48" s="72"/>
-      <c r="AY48" s="62" t="s">
+      <c r="AR48" s="207"/>
+      <c r="AS48" s="207"/>
+      <c r="AT48" s="207"/>
+      <c r="AU48" s="207"/>
+      <c r="AV48" s="207"/>
+      <c r="AW48" s="207"/>
+      <c r="AX48" s="208"/>
+      <c r="AY48" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="AZ48" s="59"/>
-      <c r="BA48" s="59"/>
-      <c r="BB48" s="59"/>
-      <c r="BC48" s="59"/>
-      <c r="BD48" s="59"/>
-      <c r="BE48" s="59"/>
-      <c r="BF48" s="58" t="s">
+      <c r="AZ48" s="210"/>
+      <c r="BA48" s="210"/>
+      <c r="BB48" s="210"/>
+      <c r="BC48" s="210"/>
+      <c r="BD48" s="210"/>
+      <c r="BE48" s="210"/>
+      <c r="BF48" s="203" t="s">
         <v>151</v>
       </c>
-      <c r="BG48" s="59"/>
-      <c r="BH48" s="59"/>
-      <c r="BI48" s="59"/>
-      <c r="BJ48" s="59"/>
-      <c r="BK48" s="59"/>
-      <c r="BL48" s="59"/>
-      <c r="BM48" s="59"/>
-      <c r="BN48" s="59"/>
-      <c r="BO48" s="59"/>
-      <c r="BP48" s="84" t="s">
-        <v>159</v>
-      </c>
-      <c r="BQ48" s="85"/>
-      <c r="BR48" s="85"/>
-      <c r="BS48" s="85"/>
-      <c r="BT48" s="85"/>
-      <c r="BU48" s="85"/>
-      <c r="BV48" s="85"/>
-      <c r="BW48" s="85"/>
-      <c r="BX48" s="85"/>
-      <c r="BY48" s="85"/>
-      <c r="BZ48" s="85"/>
-      <c r="CA48" s="85"/>
-      <c r="CB48" s="85"/>
-      <c r="CC48" s="85"/>
-      <c r="CD48" s="86"/>
-      <c r="CE48" s="60"/>
-      <c r="CF48" s="57"/>
-      <c r="CG48" s="61"/>
+      <c r="BG48" s="210"/>
+      <c r="BH48" s="210"/>
+      <c r="BI48" s="210"/>
+      <c r="BJ48" s="210"/>
+      <c r="BK48" s="210"/>
+      <c r="BL48" s="210"/>
+      <c r="BM48" s="210"/>
+      <c r="BN48" s="210"/>
+      <c r="BO48" s="210"/>
+      <c r="BP48" s="211" t="s">
+        <v>158</v>
+      </c>
+      <c r="BQ48" s="212"/>
+      <c r="BR48" s="212"/>
+      <c r="BS48" s="212"/>
+      <c r="BT48" s="212"/>
+      <c r="BU48" s="212"/>
+      <c r="BV48" s="212"/>
+      <c r="BW48" s="212"/>
+      <c r="BX48" s="212"/>
+      <c r="BY48" s="212"/>
+      <c r="BZ48" s="212"/>
+      <c r="CA48" s="212"/>
+      <c r="CB48" s="212"/>
+      <c r="CC48" s="212"/>
+      <c r="CD48" s="213"/>
+      <c r="CE48" s="68"/>
+      <c r="CF48" s="59"/>
+      <c r="CG48" s="69"/>
     </row>
     <row r="49" spans="2:85" ht="132.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="195" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="64"/>
-      <c r="D49" s="57" t="s">
+      <c r="C49" s="196"/>
+      <c r="D49" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="64"/>
-      <c r="F49" s="60" t="s">
+      <c r="E49" s="196"/>
+      <c r="F49" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="65" t="s">
+      <c r="G49" s="199" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="60" t="s">
+      <c r="H49" s="198" t="s">
         <v>126</v>
       </c>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="64">
+      <c r="I49" s="199"/>
+      <c r="J49" s="199"/>
+      <c r="K49" s="196">
         <v>1</v>
       </c>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="64">
+      <c r="L49" s="196"/>
+      <c r="M49" s="196"/>
+      <c r="N49" s="196">
         <v>1</v>
       </c>
-      <c r="O49" s="64"/>
-      <c r="P49" s="64"/>
-      <c r="Q49" s="64">
+      <c r="O49" s="196"/>
+      <c r="P49" s="196"/>
+      <c r="Q49" s="196">
         <v>3</v>
       </c>
-      <c r="R49" s="64"/>
-      <c r="S49" s="66" t="s">
+      <c r="R49" s="196"/>
+      <c r="S49" s="200" t="s">
         <v>133</v>
       </c>
-      <c r="T49" s="67"/>
-      <c r="U49" s="67"/>
-      <c r="V49" s="67"/>
-      <c r="W49" s="67"/>
-      <c r="X49" s="68"/>
-      <c r="Y49" s="58" t="s">
+      <c r="T49" s="201"/>
+      <c r="U49" s="201"/>
+      <c r="V49" s="201"/>
+      <c r="W49" s="201"/>
+      <c r="X49" s="202"/>
+      <c r="Y49" s="203" t="s">
         <v>146</v>
       </c>
-      <c r="Z49" s="69"/>
-      <c r="AA49" s="69"/>
-      <c r="AB49" s="69"/>
-      <c r="AC49" s="69"/>
-      <c r="AD49" s="69"/>
-      <c r="AE49" s="69"/>
-      <c r="AF49" s="69"/>
-      <c r="AG49" s="69"/>
-      <c r="AH49" s="69"/>
-      <c r="AI49" s="69"/>
-      <c r="AJ49" s="69"/>
-      <c r="AK49" s="69"/>
-      <c r="AL49" s="69"/>
-      <c r="AM49" s="69"/>
-      <c r="AN49" s="69"/>
-      <c r="AO49" s="69"/>
-      <c r="AP49" s="44" t="s">
+      <c r="Z49" s="204"/>
+      <c r="AA49" s="204"/>
+      <c r="AB49" s="204"/>
+      <c r="AC49" s="204"/>
+      <c r="AD49" s="204"/>
+      <c r="AE49" s="204"/>
+      <c r="AF49" s="204"/>
+      <c r="AG49" s="204"/>
+      <c r="AH49" s="204"/>
+      <c r="AI49" s="204"/>
+      <c r="AJ49" s="204"/>
+      <c r="AK49" s="204"/>
+      <c r="AL49" s="204"/>
+      <c r="AM49" s="204"/>
+      <c r="AN49" s="204"/>
+      <c r="AO49" s="204"/>
+      <c r="AP49" s="205" t="s">
         <v>127</v>
       </c>
-      <c r="AQ49" s="70" t="s">
+      <c r="AQ49" s="206" t="s">
         <v>141</v>
       </c>
-      <c r="AR49" s="71"/>
-      <c r="AS49" s="71"/>
-      <c r="AT49" s="71"/>
-      <c r="AU49" s="71"/>
-      <c r="AV49" s="71"/>
-      <c r="AW49" s="71"/>
-      <c r="AX49" s="72"/>
-      <c r="AY49" s="62" t="s">
+      <c r="AR49" s="207"/>
+      <c r="AS49" s="207"/>
+      <c r="AT49" s="207"/>
+      <c r="AU49" s="207"/>
+      <c r="AV49" s="207"/>
+      <c r="AW49" s="207"/>
+      <c r="AX49" s="208"/>
+      <c r="AY49" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="AZ49" s="59"/>
-      <c r="BA49" s="59"/>
-      <c r="BB49" s="59"/>
-      <c r="BC49" s="59"/>
-      <c r="BD49" s="59"/>
-      <c r="BE49" s="59"/>
-      <c r="BF49" s="58" t="s">
+      <c r="AZ49" s="210"/>
+      <c r="BA49" s="210"/>
+      <c r="BB49" s="210"/>
+      <c r="BC49" s="210"/>
+      <c r="BD49" s="210"/>
+      <c r="BE49" s="210"/>
+      <c r="BF49" s="203" t="s">
         <v>151</v>
       </c>
-      <c r="BG49" s="59"/>
-      <c r="BH49" s="59"/>
-      <c r="BI49" s="59"/>
-      <c r="BJ49" s="59"/>
-      <c r="BK49" s="59"/>
-      <c r="BL49" s="59"/>
-      <c r="BM49" s="59"/>
-      <c r="BN49" s="59"/>
-      <c r="BO49" s="59"/>
-      <c r="BP49" s="84" t="s">
-        <v>159</v>
-      </c>
-      <c r="BQ49" s="85"/>
-      <c r="BR49" s="85"/>
-      <c r="BS49" s="85"/>
-      <c r="BT49" s="85"/>
-      <c r="BU49" s="85"/>
-      <c r="BV49" s="85"/>
-      <c r="BW49" s="85"/>
-      <c r="BX49" s="85"/>
-      <c r="BY49" s="85"/>
-      <c r="BZ49" s="85"/>
-      <c r="CA49" s="85"/>
-      <c r="CB49" s="85"/>
-      <c r="CC49" s="85"/>
-      <c r="CD49" s="86"/>
-      <c r="CE49" s="60"/>
-      <c r="CF49" s="57"/>
-      <c r="CG49" s="61"/>
+      <c r="BG49" s="210"/>
+      <c r="BH49" s="210"/>
+      <c r="BI49" s="210"/>
+      <c r="BJ49" s="210"/>
+      <c r="BK49" s="210"/>
+      <c r="BL49" s="210"/>
+      <c r="BM49" s="210"/>
+      <c r="BN49" s="210"/>
+      <c r="BO49" s="210"/>
+      <c r="BP49" s="211" t="s">
+        <v>158</v>
+      </c>
+      <c r="BQ49" s="212"/>
+      <c r="BR49" s="212"/>
+      <c r="BS49" s="212"/>
+      <c r="BT49" s="212"/>
+      <c r="BU49" s="212"/>
+      <c r="BV49" s="212"/>
+      <c r="BW49" s="212"/>
+      <c r="BX49" s="212"/>
+      <c r="BY49" s="212"/>
+      <c r="BZ49" s="212"/>
+      <c r="CA49" s="212"/>
+      <c r="CB49" s="212"/>
+      <c r="CC49" s="212"/>
+      <c r="CD49" s="213"/>
+      <c r="CE49" s="68"/>
+      <c r="CF49" s="59"/>
+      <c r="CG49" s="69"/>
     </row>
     <row r="50" spans="2:85" ht="156.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="63" t="s">
+      <c r="B50" s="179" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="57" t="s">
+      <c r="C50" s="180"/>
+      <c r="D50" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="64"/>
-      <c r="F50" s="60" t="s">
+      <c r="E50" s="180"/>
+      <c r="F50" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="G50" s="65" t="s">
+      <c r="G50" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="H50" s="60" t="s">
+      <c r="H50" s="182" t="s">
         <v>126</v>
       </c>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="64">
+      <c r="I50" s="183"/>
+      <c r="J50" s="183"/>
+      <c r="K50" s="180">
         <v>1</v>
       </c>
-      <c r="L50" s="64"/>
-      <c r="M50" s="64"/>
-      <c r="N50" s="64">
+      <c r="L50" s="180"/>
+      <c r="M50" s="180"/>
+      <c r="N50" s="180">
         <v>1</v>
       </c>
-      <c r="O50" s="64"/>
-      <c r="P50" s="64"/>
-      <c r="Q50" s="64">
+      <c r="O50" s="180"/>
+      <c r="P50" s="180"/>
+      <c r="Q50" s="180">
         <v>3</v>
       </c>
-      <c r="R50" s="64"/>
-      <c r="S50" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="T50" s="67"/>
-      <c r="U50" s="67"/>
-      <c r="V50" s="67"/>
-      <c r="W50" s="67"/>
-      <c r="X50" s="68"/>
-      <c r="Y50" s="58" t="s">
+      <c r="R50" s="180"/>
+      <c r="S50" s="184" t="s">
+        <v>155</v>
+      </c>
+      <c r="T50" s="185"/>
+      <c r="U50" s="185"/>
+      <c r="V50" s="185"/>
+      <c r="W50" s="185"/>
+      <c r="X50" s="186"/>
+      <c r="Y50" s="187" t="s">
         <v>147</v>
       </c>
-      <c r="Z50" s="69"/>
-      <c r="AA50" s="69"/>
-      <c r="AB50" s="69"/>
-      <c r="AC50" s="69"/>
-      <c r="AD50" s="69"/>
-      <c r="AE50" s="69"/>
-      <c r="AF50" s="69"/>
-      <c r="AG50" s="69"/>
-      <c r="AH50" s="69"/>
-      <c r="AI50" s="69"/>
-      <c r="AJ50" s="69"/>
-      <c r="AK50" s="69"/>
-      <c r="AL50" s="69"/>
-      <c r="AM50" s="69"/>
-      <c r="AN50" s="69"/>
-      <c r="AO50" s="69"/>
-      <c r="AP50" s="44" t="s">
+      <c r="Z50" s="188"/>
+      <c r="AA50" s="188"/>
+      <c r="AB50" s="188"/>
+      <c r="AC50" s="188"/>
+      <c r="AD50" s="188"/>
+      <c r="AE50" s="188"/>
+      <c r="AF50" s="188"/>
+      <c r="AG50" s="188"/>
+      <c r="AH50" s="188"/>
+      <c r="AI50" s="188"/>
+      <c r="AJ50" s="188"/>
+      <c r="AK50" s="188"/>
+      <c r="AL50" s="188"/>
+      <c r="AM50" s="188"/>
+      <c r="AN50" s="188"/>
+      <c r="AO50" s="188"/>
+      <c r="AP50" s="189" t="s">
         <v>127</v>
       </c>
-      <c r="AQ50" s="70" t="s">
+      <c r="AQ50" s="190" t="s">
         <v>141</v>
       </c>
-      <c r="AR50" s="71"/>
-      <c r="AS50" s="71"/>
-      <c r="AT50" s="71"/>
-      <c r="AU50" s="71"/>
-      <c r="AV50" s="71"/>
-      <c r="AW50" s="71"/>
-      <c r="AX50" s="72"/>
-      <c r="AY50" s="62" t="s">
+      <c r="AR50" s="191"/>
+      <c r="AS50" s="191"/>
+      <c r="AT50" s="191"/>
+      <c r="AU50" s="191"/>
+      <c r="AV50" s="191"/>
+      <c r="AW50" s="191"/>
+      <c r="AX50" s="192"/>
+      <c r="AY50" s="193" t="s">
         <v>152</v>
       </c>
-      <c r="AZ50" s="59"/>
-      <c r="BA50" s="59"/>
-      <c r="BB50" s="59"/>
-      <c r="BC50" s="59"/>
-      <c r="BD50" s="59"/>
-      <c r="BE50" s="59"/>
-      <c r="BF50" s="58" t="s">
+      <c r="AZ50" s="194"/>
+      <c r="BA50" s="194"/>
+      <c r="BB50" s="194"/>
+      <c r="BC50" s="194"/>
+      <c r="BD50" s="194"/>
+      <c r="BE50" s="194"/>
+      <c r="BF50" s="187" t="s">
         <v>151</v>
       </c>
-      <c r="BG50" s="59"/>
-      <c r="BH50" s="59"/>
-      <c r="BI50" s="59"/>
-      <c r="BJ50" s="59"/>
-      <c r="BK50" s="59"/>
-      <c r="BL50" s="59"/>
-      <c r="BM50" s="59"/>
-      <c r="BN50" s="59"/>
-      <c r="BO50" s="59"/>
-      <c r="BP50" s="58" t="s">
+      <c r="BG50" s="194"/>
+      <c r="BH50" s="194"/>
+      <c r="BI50" s="194"/>
+      <c r="BJ50" s="194"/>
+      <c r="BK50" s="194"/>
+      <c r="BL50" s="194"/>
+      <c r="BM50" s="194"/>
+      <c r="BN50" s="194"/>
+      <c r="BO50" s="194"/>
+      <c r="BP50" s="187" t="s">
         <v>142</v>
       </c>
-      <c r="BQ50" s="59"/>
-      <c r="BR50" s="59"/>
-      <c r="BS50" s="59"/>
-      <c r="BT50" s="59"/>
-      <c r="BU50" s="59"/>
-      <c r="BV50" s="59"/>
-      <c r="BW50" s="59"/>
-      <c r="BX50" s="59"/>
-      <c r="BY50" s="59"/>
-      <c r="BZ50" s="59"/>
-      <c r="CA50" s="59"/>
-      <c r="CB50" s="59"/>
-      <c r="CC50" s="59"/>
-      <c r="CD50" s="59"/>
-      <c r="CE50" s="60"/>
-      <c r="CF50" s="57"/>
-      <c r="CG50" s="61"/>
+      <c r="BQ50" s="194"/>
+      <c r="BR50" s="194"/>
+      <c r="BS50" s="194"/>
+      <c r="BT50" s="194"/>
+      <c r="BU50" s="194"/>
+      <c r="BV50" s="194"/>
+      <c r="BW50" s="194"/>
+      <c r="BX50" s="194"/>
+      <c r="BY50" s="194"/>
+      <c r="BZ50" s="194"/>
+      <c r="CA50" s="194"/>
+      <c r="CB50" s="194"/>
+      <c r="CC50" s="194"/>
+      <c r="CD50" s="194"/>
+      <c r="CE50" s="68"/>
+      <c r="CF50" s="59"/>
+      <c r="CG50" s="69"/>
     </row>
     <row r="51" spans="2:85" ht="162.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="179" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="57" t="s">
+      <c r="C51" s="180"/>
+      <c r="D51" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="64"/>
-      <c r="F51" s="60" t="s">
+      <c r="E51" s="180"/>
+      <c r="F51" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="65" t="s">
+      <c r="G51" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="H51" s="60" t="s">
+      <c r="H51" s="182" t="s">
         <v>126</v>
       </c>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="64">
+      <c r="I51" s="183"/>
+      <c r="J51" s="183"/>
+      <c r="K51" s="180">
         <v>1</v>
       </c>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64">
+      <c r="L51" s="180"/>
+      <c r="M51" s="180"/>
+      <c r="N51" s="180">
         <v>1</v>
       </c>
-      <c r="O51" s="64"/>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="64">
+      <c r="O51" s="180"/>
+      <c r="P51" s="180"/>
+      <c r="Q51" s="180">
         <v>3</v>
       </c>
-      <c r="R51" s="64"/>
-      <c r="S51" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="T51" s="67"/>
-      <c r="U51" s="67"/>
-      <c r="V51" s="67"/>
-      <c r="W51" s="67"/>
-      <c r="X51" s="68"/>
-      <c r="Y51" s="58" t="s">
+      <c r="R51" s="180"/>
+      <c r="S51" s="184" t="s">
+        <v>156</v>
+      </c>
+      <c r="T51" s="185"/>
+      <c r="U51" s="185"/>
+      <c r="V51" s="185"/>
+      <c r="W51" s="185"/>
+      <c r="X51" s="186"/>
+      <c r="Y51" s="187" t="s">
         <v>147</v>
       </c>
-      <c r="Z51" s="69"/>
-      <c r="AA51" s="69"/>
-      <c r="AB51" s="69"/>
-      <c r="AC51" s="69"/>
-      <c r="AD51" s="69"/>
-      <c r="AE51" s="69"/>
-      <c r="AF51" s="69"/>
-      <c r="AG51" s="69"/>
-      <c r="AH51" s="69"/>
-      <c r="AI51" s="69"/>
-      <c r="AJ51" s="69"/>
-      <c r="AK51" s="69"/>
-      <c r="AL51" s="69"/>
-      <c r="AM51" s="69"/>
-      <c r="AN51" s="69"/>
-      <c r="AO51" s="69"/>
-      <c r="AP51" s="44" t="s">
+      <c r="Z51" s="188"/>
+      <c r="AA51" s="188"/>
+      <c r="AB51" s="188"/>
+      <c r="AC51" s="188"/>
+      <c r="AD51" s="188"/>
+      <c r="AE51" s="188"/>
+      <c r="AF51" s="188"/>
+      <c r="AG51" s="188"/>
+      <c r="AH51" s="188"/>
+      <c r="AI51" s="188"/>
+      <c r="AJ51" s="188"/>
+      <c r="AK51" s="188"/>
+      <c r="AL51" s="188"/>
+      <c r="AM51" s="188"/>
+      <c r="AN51" s="188"/>
+      <c r="AO51" s="188"/>
+      <c r="AP51" s="189" t="s">
         <v>127</v>
       </c>
-      <c r="AQ51" s="70" t="s">
+      <c r="AQ51" s="190" t="s">
         <v>141</v>
       </c>
-      <c r="AR51" s="71"/>
-      <c r="AS51" s="71"/>
-      <c r="AT51" s="71"/>
-      <c r="AU51" s="71"/>
-      <c r="AV51" s="71"/>
-      <c r="AW51" s="71"/>
-      <c r="AX51" s="72"/>
-      <c r="AY51" s="62" t="s">
+      <c r="AR51" s="191"/>
+      <c r="AS51" s="191"/>
+      <c r="AT51" s="191"/>
+      <c r="AU51" s="191"/>
+      <c r="AV51" s="191"/>
+      <c r="AW51" s="191"/>
+      <c r="AX51" s="192"/>
+      <c r="AY51" s="193" t="s">
         <v>152</v>
       </c>
-      <c r="AZ51" s="59"/>
-      <c r="BA51" s="59"/>
-      <c r="BB51" s="59"/>
-      <c r="BC51" s="59"/>
-      <c r="BD51" s="59"/>
-      <c r="BE51" s="59"/>
-      <c r="BF51" s="58" t="s">
+      <c r="AZ51" s="194"/>
+      <c r="BA51" s="194"/>
+      <c r="BB51" s="194"/>
+      <c r="BC51" s="194"/>
+      <c r="BD51" s="194"/>
+      <c r="BE51" s="194"/>
+      <c r="BF51" s="187" t="s">
         <v>151</v>
       </c>
-      <c r="BG51" s="59"/>
-      <c r="BH51" s="59"/>
-      <c r="BI51" s="59"/>
-      <c r="BJ51" s="59"/>
-      <c r="BK51" s="59"/>
-      <c r="BL51" s="59"/>
-      <c r="BM51" s="59"/>
-      <c r="BN51" s="59"/>
-      <c r="BO51" s="59"/>
-      <c r="BP51" s="58" t="s">
+      <c r="BG51" s="194"/>
+      <c r="BH51" s="194"/>
+      <c r="BI51" s="194"/>
+      <c r="BJ51" s="194"/>
+      <c r="BK51" s="194"/>
+      <c r="BL51" s="194"/>
+      <c r="BM51" s="194"/>
+      <c r="BN51" s="194"/>
+      <c r="BO51" s="194"/>
+      <c r="BP51" s="187" t="s">
         <v>142</v>
       </c>
-      <c r="BQ51" s="59"/>
-      <c r="BR51" s="59"/>
-      <c r="BS51" s="59"/>
-      <c r="BT51" s="59"/>
-      <c r="BU51" s="59"/>
-      <c r="BV51" s="59"/>
-      <c r="BW51" s="59"/>
-      <c r="BX51" s="59"/>
-      <c r="BY51" s="59"/>
-      <c r="BZ51" s="59"/>
-      <c r="CA51" s="59"/>
-      <c r="CB51" s="59"/>
-      <c r="CC51" s="59"/>
-      <c r="CD51" s="59"/>
-      <c r="CE51" s="60"/>
-      <c r="CF51" s="57"/>
-      <c r="CG51" s="61"/>
+      <c r="BQ51" s="194"/>
+      <c r="BR51" s="194"/>
+      <c r="BS51" s="194"/>
+      <c r="BT51" s="194"/>
+      <c r="BU51" s="194"/>
+      <c r="BV51" s="194"/>
+      <c r="BW51" s="194"/>
+      <c r="BX51" s="194"/>
+      <c r="BY51" s="194"/>
+      <c r="BZ51" s="194"/>
+      <c r="CA51" s="194"/>
+      <c r="CB51" s="194"/>
+      <c r="CC51" s="194"/>
+      <c r="CD51" s="194"/>
+      <c r="CE51" s="68"/>
+      <c r="CF51" s="59"/>
+      <c r="CG51" s="69"/>
     </row>
     <row r="52" spans="2:85" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="179" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="57" t="s">
+      <c r="C52" s="180"/>
+      <c r="D52" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="64"/>
-      <c r="F52" s="60" t="s">
+      <c r="E52" s="180"/>
+      <c r="F52" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="G52" s="65" t="s">
+      <c r="G52" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="H52" s="60" t="s">
+      <c r="H52" s="182" t="s">
         <v>126</v>
       </c>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="64">
+      <c r="I52" s="183"/>
+      <c r="J52" s="183"/>
+      <c r="K52" s="180">
         <v>1</v>
       </c>
-      <c r="L52" s="64"/>
-      <c r="M52" s="64"/>
-      <c r="N52" s="64">
+      <c r="L52" s="180"/>
+      <c r="M52" s="180"/>
+      <c r="N52" s="180">
         <v>1</v>
       </c>
-      <c r="O52" s="64"/>
-      <c r="P52" s="64"/>
-      <c r="Q52" s="64">
+      <c r="O52" s="180"/>
+      <c r="P52" s="180"/>
+      <c r="Q52" s="180">
         <v>3</v>
       </c>
-      <c r="R52" s="64"/>
-      <c r="S52" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="T52" s="67"/>
-      <c r="U52" s="67"/>
-      <c r="V52" s="67"/>
-      <c r="W52" s="67"/>
-      <c r="X52" s="68"/>
-      <c r="Y52" s="58" t="s">
+      <c r="R52" s="180"/>
+      <c r="S52" s="184" t="s">
+        <v>157</v>
+      </c>
+      <c r="T52" s="185"/>
+      <c r="U52" s="185"/>
+      <c r="V52" s="185"/>
+      <c r="W52" s="185"/>
+      <c r="X52" s="186"/>
+      <c r="Y52" s="187" t="s">
         <v>147</v>
       </c>
-      <c r="Z52" s="69"/>
-      <c r="AA52" s="69"/>
-      <c r="AB52" s="69"/>
-      <c r="AC52" s="69"/>
-      <c r="AD52" s="69"/>
-      <c r="AE52" s="69"/>
-      <c r="AF52" s="69"/>
-      <c r="AG52" s="69"/>
-      <c r="AH52" s="69"/>
-      <c r="AI52" s="69"/>
-      <c r="AJ52" s="69"/>
-      <c r="AK52" s="69"/>
-      <c r="AL52" s="69"/>
-      <c r="AM52" s="69"/>
-      <c r="AN52" s="69"/>
-      <c r="AO52" s="69"/>
-      <c r="AP52" s="44" t="s">
+      <c r="Z52" s="188"/>
+      <c r="AA52" s="188"/>
+      <c r="AB52" s="188"/>
+      <c r="AC52" s="188"/>
+      <c r="AD52" s="188"/>
+      <c r="AE52" s="188"/>
+      <c r="AF52" s="188"/>
+      <c r="AG52" s="188"/>
+      <c r="AH52" s="188"/>
+      <c r="AI52" s="188"/>
+      <c r="AJ52" s="188"/>
+      <c r="AK52" s="188"/>
+      <c r="AL52" s="188"/>
+      <c r="AM52" s="188"/>
+      <c r="AN52" s="188"/>
+      <c r="AO52" s="188"/>
+      <c r="AP52" s="189" t="s">
         <v>127</v>
       </c>
-      <c r="AQ52" s="70" t="s">
+      <c r="AQ52" s="190" t="s">
         <v>141</v>
       </c>
-      <c r="AR52" s="71"/>
-      <c r="AS52" s="71"/>
-      <c r="AT52" s="71"/>
-      <c r="AU52" s="71"/>
-      <c r="AV52" s="71"/>
-      <c r="AW52" s="71"/>
-      <c r="AX52" s="72"/>
-      <c r="AY52" s="62" t="s">
+      <c r="AR52" s="191"/>
+      <c r="AS52" s="191"/>
+      <c r="AT52" s="191"/>
+      <c r="AU52" s="191"/>
+      <c r="AV52" s="191"/>
+      <c r="AW52" s="191"/>
+      <c r="AX52" s="192"/>
+      <c r="AY52" s="193" t="s">
         <v>152</v>
       </c>
-      <c r="AZ52" s="59"/>
-      <c r="BA52" s="59"/>
-      <c r="BB52" s="59"/>
-      <c r="BC52" s="59"/>
-      <c r="BD52" s="59"/>
-      <c r="BE52" s="59"/>
-      <c r="BF52" s="58" t="s">
+      <c r="AZ52" s="194"/>
+      <c r="BA52" s="194"/>
+      <c r="BB52" s="194"/>
+      <c r="BC52" s="194"/>
+      <c r="BD52" s="194"/>
+      <c r="BE52" s="194"/>
+      <c r="BF52" s="187" t="s">
         <v>151</v>
       </c>
-      <c r="BG52" s="59"/>
-      <c r="BH52" s="59"/>
-      <c r="BI52" s="59"/>
-      <c r="BJ52" s="59"/>
-      <c r="BK52" s="59"/>
-      <c r="BL52" s="59"/>
-      <c r="BM52" s="59"/>
-      <c r="BN52" s="59"/>
-      <c r="BO52" s="59"/>
-      <c r="BP52" s="58" t="s">
+      <c r="BG52" s="194"/>
+      <c r="BH52" s="194"/>
+      <c r="BI52" s="194"/>
+      <c r="BJ52" s="194"/>
+      <c r="BK52" s="194"/>
+      <c r="BL52" s="194"/>
+      <c r="BM52" s="194"/>
+      <c r="BN52" s="194"/>
+      <c r="BO52" s="194"/>
+      <c r="BP52" s="187" t="s">
         <v>142</v>
       </c>
-      <c r="BQ52" s="59"/>
-      <c r="BR52" s="59"/>
-      <c r="BS52" s="59"/>
-      <c r="BT52" s="59"/>
-      <c r="BU52" s="59"/>
-      <c r="BV52" s="59"/>
-      <c r="BW52" s="59"/>
-      <c r="BX52" s="59"/>
-      <c r="BY52" s="59"/>
-      <c r="BZ52" s="59"/>
-      <c r="CA52" s="59"/>
-      <c r="CB52" s="59"/>
-      <c r="CC52" s="59"/>
-      <c r="CD52" s="59"/>
-      <c r="CE52" s="60"/>
-      <c r="CF52" s="57"/>
-      <c r="CG52" s="61"/>
+      <c r="BQ52" s="194"/>
+      <c r="BR52" s="194"/>
+      <c r="BS52" s="194"/>
+      <c r="BT52" s="194"/>
+      <c r="BU52" s="194"/>
+      <c r="BV52" s="194"/>
+      <c r="BW52" s="194"/>
+      <c r="BX52" s="194"/>
+      <c r="BY52" s="194"/>
+      <c r="BZ52" s="194"/>
+      <c r="CA52" s="194"/>
+      <c r="CB52" s="194"/>
+      <c r="CC52" s="194"/>
+      <c r="CD52" s="194"/>
+      <c r="CE52" s="68"/>
+      <c r="CF52" s="59"/>
+      <c r="CG52" s="69"/>
     </row>
     <row r="53" spans="2:85" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="63" t="s">
+      <c r="B53" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="57" t="s">
+      <c r="C53" s="61"/>
+      <c r="D53" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="64"/>
-      <c r="F53" s="60" t="s">
+      <c r="E53" s="61"/>
+      <c r="F53" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="65" t="s">
+      <c r="G53" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="H53" s="60" t="s">
+      <c r="H53" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="64">
+      <c r="I53" s="79"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="61">
         <v>1</v>
       </c>
-      <c r="L53" s="64"/>
-      <c r="M53" s="64"/>
-      <c r="N53" s="64">
+      <c r="L53" s="61"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="61">
         <v>1</v>
       </c>
-      <c r="O53" s="64"/>
-      <c r="P53" s="64"/>
-      <c r="Q53" s="64">
+      <c r="O53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="61">
         <v>3</v>
       </c>
-      <c r="R53" s="64"/>
-      <c r="S53" s="70" t="s">
+      <c r="R53" s="61"/>
+      <c r="S53" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="T53" s="71"/>
-      <c r="U53" s="71"/>
-      <c r="V53" s="71"/>
-      <c r="W53" s="71"/>
-      <c r="X53" s="72"/>
-      <c r="Y53" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z53" s="69"/>
-      <c r="AA53" s="69"/>
-      <c r="AB53" s="69"/>
-      <c r="AC53" s="69"/>
-      <c r="AD53" s="69"/>
-      <c r="AE53" s="69"/>
-      <c r="AF53" s="69"/>
-      <c r="AG53" s="69"/>
-      <c r="AH53" s="69"/>
-      <c r="AI53" s="69"/>
-      <c r="AJ53" s="69"/>
-      <c r="AK53" s="69"/>
-      <c r="AL53" s="69"/>
-      <c r="AM53" s="69"/>
-      <c r="AN53" s="69"/>
-      <c r="AO53" s="69"/>
+      <c r="T53" s="63"/>
+      <c r="U53" s="63"/>
+      <c r="V53" s="63"/>
+      <c r="W53" s="63"/>
+      <c r="X53" s="64"/>
+      <c r="Y53" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z53" s="73"/>
+      <c r="AA53" s="73"/>
+      <c r="AB53" s="73"/>
+      <c r="AC53" s="73"/>
+      <c r="AD53" s="73"/>
+      <c r="AE53" s="73"/>
+      <c r="AF53" s="73"/>
+      <c r="AG53" s="73"/>
+      <c r="AH53" s="73"/>
+      <c r="AI53" s="73"/>
+      <c r="AJ53" s="73"/>
+      <c r="AK53" s="73"/>
+      <c r="AL53" s="73"/>
+      <c r="AM53" s="73"/>
+      <c r="AN53" s="73"/>
+      <c r="AO53" s="73"/>
       <c r="AP53" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="AQ53" s="172" t="s">
+      <c r="AQ53" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="AR53" s="173"/>
-      <c r="AS53" s="173"/>
-      <c r="AT53" s="173"/>
-      <c r="AU53" s="173"/>
-      <c r="AV53" s="173"/>
-      <c r="AW53" s="173"/>
-      <c r="AX53" s="173"/>
-      <c r="AY53" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ53" s="57"/>
-      <c r="BA53" s="57"/>
-      <c r="BB53" s="57"/>
-      <c r="BC53" s="57"/>
-      <c r="BD53" s="57"/>
-      <c r="BE53" s="57"/>
-      <c r="BF53" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="BG53" s="57"/>
-      <c r="BH53" s="57"/>
-      <c r="BI53" s="57"/>
-      <c r="BJ53" s="57"/>
-      <c r="BK53" s="57"/>
-      <c r="BL53" s="57"/>
-      <c r="BM53" s="57"/>
-      <c r="BN53" s="57"/>
-      <c r="BO53" s="57"/>
-      <c r="BP53" s="58" t="s">
+      <c r="AR53" s="75"/>
+      <c r="AS53" s="75"/>
+      <c r="AT53" s="75"/>
+      <c r="AU53" s="75"/>
+      <c r="AV53" s="75"/>
+      <c r="AW53" s="75"/>
+      <c r="AX53" s="75"/>
+      <c r="AY53" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ53" s="66"/>
+      <c r="BA53" s="66"/>
+      <c r="BB53" s="66"/>
+      <c r="BC53" s="66"/>
+      <c r="BD53" s="66"/>
+      <c r="BE53" s="66"/>
+      <c r="BF53" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="BG53" s="66"/>
+      <c r="BH53" s="66"/>
+      <c r="BI53" s="66"/>
+      <c r="BJ53" s="66"/>
+      <c r="BK53" s="66"/>
+      <c r="BL53" s="66"/>
+      <c r="BM53" s="66"/>
+      <c r="BN53" s="66"/>
+      <c r="BO53" s="66"/>
+      <c r="BP53" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="BQ53" s="59"/>
-      <c r="BR53" s="59"/>
-      <c r="BS53" s="59"/>
-      <c r="BT53" s="59"/>
-      <c r="BU53" s="59"/>
-      <c r="BV53" s="59"/>
-      <c r="BW53" s="59"/>
-      <c r="BX53" s="59"/>
-      <c r="BY53" s="59"/>
-      <c r="BZ53" s="59"/>
-      <c r="CA53" s="59"/>
-      <c r="CB53" s="59"/>
-      <c r="CC53" s="59"/>
-      <c r="CD53" s="59"/>
-      <c r="CE53" s="60"/>
-      <c r="CF53" s="57"/>
-      <c r="CG53" s="61"/>
+      <c r="BQ53" s="66"/>
+      <c r="BR53" s="66"/>
+      <c r="BS53" s="66"/>
+      <c r="BT53" s="66"/>
+      <c r="BU53" s="66"/>
+      <c r="BV53" s="66"/>
+      <c r="BW53" s="66"/>
+      <c r="BX53" s="66"/>
+      <c r="BY53" s="66"/>
+      <c r="BZ53" s="66"/>
+      <c r="CA53" s="66"/>
+      <c r="CB53" s="66"/>
+      <c r="CC53" s="66"/>
+      <c r="CD53" s="66"/>
+      <c r="CE53" s="68"/>
+      <c r="CF53" s="59"/>
+      <c r="CG53" s="69"/>
     </row>
     <row r="54" spans="2:85" ht="202.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="64"/>
-      <c r="D54" s="57" t="s">
+      <c r="C54" s="61"/>
+      <c r="D54" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="64"/>
-      <c r="F54" s="60" t="s">
+      <c r="E54" s="61"/>
+      <c r="F54" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="G54" s="65" t="s">
+      <c r="G54" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="H54" s="60" t="s">
+      <c r="H54" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="64">
+      <c r="I54" s="79"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="61">
         <v>1</v>
       </c>
-      <c r="L54" s="64"/>
-      <c r="M54" s="64"/>
-      <c r="N54" s="64">
+      <c r="L54" s="61"/>
+      <c r="M54" s="61"/>
+      <c r="N54" s="61">
         <v>1</v>
       </c>
-      <c r="O54" s="64"/>
-      <c r="P54" s="64"/>
-      <c r="Q54" s="64">
+      <c r="O54" s="61"/>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="61">
         <v>3</v>
       </c>
-      <c r="R54" s="64"/>
-      <c r="S54" s="70" t="s">
+      <c r="R54" s="61"/>
+      <c r="S54" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="T54" s="71"/>
-      <c r="U54" s="71"/>
-      <c r="V54" s="71"/>
-      <c r="W54" s="71"/>
-      <c r="X54" s="72"/>
-      <c r="Y54" s="58" t="s">
+      <c r="T54" s="63"/>
+      <c r="U54" s="63"/>
+      <c r="V54" s="63"/>
+      <c r="W54" s="63"/>
+      <c r="X54" s="64"/>
+      <c r="Y54" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="Z54" s="69"/>
-      <c r="AA54" s="69"/>
-      <c r="AB54" s="69"/>
-      <c r="AC54" s="69"/>
-      <c r="AD54" s="69"/>
-      <c r="AE54" s="69"/>
-      <c r="AF54" s="69"/>
-      <c r="AG54" s="69"/>
-      <c r="AH54" s="69"/>
-      <c r="AI54" s="69"/>
-      <c r="AJ54" s="69"/>
-      <c r="AK54" s="69"/>
-      <c r="AL54" s="69"/>
-      <c r="AM54" s="69"/>
-      <c r="AN54" s="69"/>
-      <c r="AO54" s="69"/>
+      <c r="Z54" s="73"/>
+      <c r="AA54" s="73"/>
+      <c r="AB54" s="73"/>
+      <c r="AC54" s="73"/>
+      <c r="AD54" s="73"/>
+      <c r="AE54" s="73"/>
+      <c r="AF54" s="73"/>
+      <c r="AG54" s="73"/>
+      <c r="AH54" s="73"/>
+      <c r="AI54" s="73"/>
+      <c r="AJ54" s="73"/>
+      <c r="AK54" s="73"/>
+      <c r="AL54" s="73"/>
+      <c r="AM54" s="73"/>
+      <c r="AN54" s="73"/>
+      <c r="AO54" s="73"/>
       <c r="AP54" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="AQ54" s="172" t="s">
+      <c r="AQ54" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="AR54" s="173"/>
-      <c r="AS54" s="173"/>
-      <c r="AT54" s="173"/>
-      <c r="AU54" s="173"/>
-      <c r="AV54" s="173"/>
-      <c r="AW54" s="173"/>
-      <c r="AX54" s="173"/>
-      <c r="AY54" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ54" s="57"/>
-      <c r="BA54" s="57"/>
-      <c r="BB54" s="57"/>
-      <c r="BC54" s="57"/>
-      <c r="BD54" s="57"/>
-      <c r="BE54" s="57"/>
-      <c r="BF54" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="BG54" s="57"/>
-      <c r="BH54" s="57"/>
-      <c r="BI54" s="57"/>
-      <c r="BJ54" s="57"/>
-      <c r="BK54" s="57"/>
-      <c r="BL54" s="57"/>
-      <c r="BM54" s="57"/>
-      <c r="BN54" s="57"/>
-      <c r="BO54" s="57"/>
-      <c r="BP54" s="58" t="s">
+      <c r="AR54" s="75"/>
+      <c r="AS54" s="75"/>
+      <c r="AT54" s="75"/>
+      <c r="AU54" s="75"/>
+      <c r="AV54" s="75"/>
+      <c r="AW54" s="75"/>
+      <c r="AX54" s="75"/>
+      <c r="AY54" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ54" s="66"/>
+      <c r="BA54" s="66"/>
+      <c r="BB54" s="66"/>
+      <c r="BC54" s="66"/>
+      <c r="BD54" s="66"/>
+      <c r="BE54" s="66"/>
+      <c r="BF54" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="BG54" s="66"/>
+      <c r="BH54" s="66"/>
+      <c r="BI54" s="66"/>
+      <c r="BJ54" s="66"/>
+      <c r="BK54" s="66"/>
+      <c r="BL54" s="66"/>
+      <c r="BM54" s="66"/>
+      <c r="BN54" s="66"/>
+      <c r="BO54" s="66"/>
+      <c r="BP54" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="BQ54" s="59"/>
-      <c r="BR54" s="59"/>
-      <c r="BS54" s="59"/>
-      <c r="BT54" s="59"/>
-      <c r="BU54" s="59"/>
-      <c r="BV54" s="59"/>
-      <c r="BW54" s="59"/>
-      <c r="BX54" s="59"/>
-      <c r="BY54" s="59"/>
-      <c r="BZ54" s="59"/>
-      <c r="CA54" s="59"/>
-      <c r="CB54" s="59"/>
-      <c r="CC54" s="59"/>
-      <c r="CD54" s="59"/>
-      <c r="CE54" s="60"/>
-      <c r="CF54" s="57"/>
-      <c r="CG54" s="61"/>
+      <c r="BQ54" s="66"/>
+      <c r="BR54" s="66"/>
+      <c r="BS54" s="66"/>
+      <c r="BT54" s="66"/>
+      <c r="BU54" s="66"/>
+      <c r="BV54" s="66"/>
+      <c r="BW54" s="66"/>
+      <c r="BX54" s="66"/>
+      <c r="BY54" s="66"/>
+      <c r="BZ54" s="66"/>
+      <c r="CA54" s="66"/>
+      <c r="CB54" s="66"/>
+      <c r="CC54" s="66"/>
+      <c r="CD54" s="66"/>
+      <c r="CE54" s="68"/>
+      <c r="CF54" s="59"/>
+      <c r="CG54" s="69"/>
     </row>
     <row r="55" spans="2:85" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="64"/>
-      <c r="D55" s="57" t="s">
+      <c r="C55" s="61"/>
+      <c r="D55" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="64"/>
-      <c r="F55" s="60" t="s">
+      <c r="E55" s="61"/>
+      <c r="F55" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="G55" s="65" t="s">
+      <c r="G55" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="H55" s="60" t="s">
+      <c r="H55" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="64">
+      <c r="I55" s="79"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="61">
         <v>1</v>
       </c>
-      <c r="L55" s="64"/>
-      <c r="M55" s="64"/>
-      <c r="N55" s="64">
+      <c r="L55" s="61"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="61">
         <v>1</v>
       </c>
-      <c r="O55" s="64"/>
-      <c r="P55" s="64"/>
-      <c r="Q55" s="64">
+      <c r="O55" s="61"/>
+      <c r="P55" s="61"/>
+      <c r="Q55" s="61">
         <v>3</v>
       </c>
-      <c r="R55" s="64"/>
-      <c r="S55" s="66" t="s">
+      <c r="R55" s="61"/>
+      <c r="S55" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="T55" s="67"/>
-      <c r="U55" s="67"/>
-      <c r="V55" s="67"/>
-      <c r="W55" s="67"/>
-      <c r="X55" s="68"/>
-      <c r="Y55" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z55" s="69"/>
-      <c r="AA55" s="69"/>
-      <c r="AB55" s="69"/>
-      <c r="AC55" s="69"/>
-      <c r="AD55" s="69"/>
-      <c r="AE55" s="69"/>
-      <c r="AF55" s="69"/>
-      <c r="AG55" s="69"/>
-      <c r="AH55" s="69"/>
-      <c r="AI55" s="69"/>
-      <c r="AJ55" s="69"/>
-      <c r="AK55" s="69"/>
-      <c r="AL55" s="69"/>
-      <c r="AM55" s="69"/>
-      <c r="AN55" s="69"/>
-      <c r="AO55" s="69"/>
+      <c r="T55" s="71"/>
+      <c r="U55" s="71"/>
+      <c r="V55" s="71"/>
+      <c r="W55" s="71"/>
+      <c r="X55" s="72"/>
+      <c r="Y55" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z55" s="73"/>
+      <c r="AA55" s="73"/>
+      <c r="AB55" s="73"/>
+      <c r="AC55" s="73"/>
+      <c r="AD55" s="73"/>
+      <c r="AE55" s="73"/>
+      <c r="AF55" s="73"/>
+      <c r="AG55" s="73"/>
+      <c r="AH55" s="73"/>
+      <c r="AI55" s="73"/>
+      <c r="AJ55" s="73"/>
+      <c r="AK55" s="73"/>
+      <c r="AL55" s="73"/>
+      <c r="AM55" s="73"/>
+      <c r="AN55" s="73"/>
+      <c r="AO55" s="73"/>
       <c r="AP55" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="AQ55" s="172" t="s">
+      <c r="AQ55" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="AR55" s="173"/>
-      <c r="AS55" s="173"/>
-      <c r="AT55" s="173"/>
-      <c r="AU55" s="173"/>
-      <c r="AV55" s="173"/>
-      <c r="AW55" s="173"/>
-      <c r="AX55" s="173"/>
-      <c r="AY55" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ55" s="57"/>
-      <c r="BA55" s="57"/>
-      <c r="BB55" s="57"/>
-      <c r="BC55" s="57"/>
-      <c r="BD55" s="57"/>
-      <c r="BE55" s="57"/>
-      <c r="BF55" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="BG55" s="57"/>
-      <c r="BH55" s="57"/>
-      <c r="BI55" s="57"/>
-      <c r="BJ55" s="57"/>
-      <c r="BK55" s="57"/>
-      <c r="BL55" s="57"/>
-      <c r="BM55" s="57"/>
-      <c r="BN55" s="57"/>
-      <c r="BO55" s="57"/>
-      <c r="BP55" s="58" t="s">
+      <c r="AR55" s="75"/>
+      <c r="AS55" s="75"/>
+      <c r="AT55" s="75"/>
+      <c r="AU55" s="75"/>
+      <c r="AV55" s="75"/>
+      <c r="AW55" s="75"/>
+      <c r="AX55" s="75"/>
+      <c r="AY55" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ55" s="66"/>
+      <c r="BA55" s="66"/>
+      <c r="BB55" s="66"/>
+      <c r="BC55" s="66"/>
+      <c r="BD55" s="66"/>
+      <c r="BE55" s="66"/>
+      <c r="BF55" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="BG55" s="66"/>
+      <c r="BH55" s="66"/>
+      <c r="BI55" s="66"/>
+      <c r="BJ55" s="66"/>
+      <c r="BK55" s="66"/>
+      <c r="BL55" s="66"/>
+      <c r="BM55" s="66"/>
+      <c r="BN55" s="66"/>
+      <c r="BO55" s="66"/>
+      <c r="BP55" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="BQ55" s="59"/>
-      <c r="BR55" s="59"/>
-      <c r="BS55" s="59"/>
-      <c r="BT55" s="59"/>
-      <c r="BU55" s="59"/>
-      <c r="BV55" s="59"/>
-      <c r="BW55" s="59"/>
-      <c r="BX55" s="59"/>
-      <c r="BY55" s="59"/>
-      <c r="BZ55" s="59"/>
-      <c r="CA55" s="59"/>
-      <c r="CB55" s="59"/>
-      <c r="CC55" s="59"/>
-      <c r="CD55" s="59"/>
-      <c r="CE55" s="60"/>
-      <c r="CF55" s="57"/>
-      <c r="CG55" s="61"/>
+      <c r="BQ55" s="66"/>
+      <c r="BR55" s="66"/>
+      <c r="BS55" s="66"/>
+      <c r="BT55" s="66"/>
+      <c r="BU55" s="66"/>
+      <c r="BV55" s="66"/>
+      <c r="BW55" s="66"/>
+      <c r="BX55" s="66"/>
+      <c r="BY55" s="66"/>
+      <c r="BZ55" s="66"/>
+      <c r="CA55" s="66"/>
+      <c r="CB55" s="66"/>
+      <c r="CC55" s="66"/>
+      <c r="CD55" s="66"/>
+      <c r="CE55" s="68"/>
+      <c r="CF55" s="59"/>
+      <c r="CG55" s="69"/>
     </row>
     <row r="56" spans="2:85" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="21"/>
@@ -20962,21 +21067,21 @@
       <c r="AP78" s="5"/>
     </row>
     <row r="79" spans="2:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="179"/>
-      <c r="C79" s="179"/>
-      <c r="D79" s="179"/>
-      <c r="E79" s="179"/>
-      <c r="F79" s="179"/>
-      <c r="G79" s="179"/>
-      <c r="H79" s="179"/>
-      <c r="I79" s="179"/>
-      <c r="J79" s="179"/>
-      <c r="K79" s="179"/>
-      <c r="L79" s="179"/>
-      <c r="M79" s="179"/>
-      <c r="N79" s="179"/>
-      <c r="O79" s="179"/>
-      <c r="P79" s="179"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="56"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="56"/>
+      <c r="M79" s="56"/>
+      <c r="N79" s="56"/>
+      <c r="O79" s="56"/>
+      <c r="P79" s="56"/>
       <c r="Z79" s="10" t="s">
         <v>26</v>
       </c>
@@ -21009,18 +21114,18 @@
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
-      <c r="F81" s="180"/>
-      <c r="G81" s="180"/>
-      <c r="H81" s="180"/>
-      <c r="I81" s="180"/>
-      <c r="J81" s="180"/>
-      <c r="K81" s="180"/>
-      <c r="L81" s="180"/>
-      <c r="M81" s="180"/>
-      <c r="N81" s="180"/>
-      <c r="O81" s="180"/>
-      <c r="P81" s="180"/>
-      <c r="Q81" s="180"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="57"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="57"/>
+      <c r="N81" s="57"/>
+      <c r="O81" s="57"/>
+      <c r="P81" s="57"/>
+      <c r="Q81" s="57"/>
       <c r="AK81" t="s">
         <v>97</v>
       </c>
@@ -21072,6 +21177,181 @@
     <filterColumn colId="82" showButton="0"/>
   </autoFilter>
   <mergeCells count="199">
+    <mergeCell ref="AY54:BE54"/>
+    <mergeCell ref="BF54:BO54"/>
+    <mergeCell ref="BP54:CD54"/>
+    <mergeCell ref="CE54:CG54"/>
+    <mergeCell ref="AY51:BE51"/>
+    <mergeCell ref="BF51:BO51"/>
+    <mergeCell ref="BP51:CD51"/>
+    <mergeCell ref="CE51:CG51"/>
+    <mergeCell ref="CE49:CG49"/>
+    <mergeCell ref="BF53:BO53"/>
+    <mergeCell ref="BP53:CD53"/>
+    <mergeCell ref="CE53:CG53"/>
+    <mergeCell ref="AY52:BE52"/>
+    <mergeCell ref="BF52:BO52"/>
+    <mergeCell ref="BP52:CD52"/>
+    <mergeCell ref="CE52:CG52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:X52"/>
+    <mergeCell ref="Y52:AO52"/>
+    <mergeCell ref="F31:AO31"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="CE46:CG46"/>
+    <mergeCell ref="AQ49:AX49"/>
+    <mergeCell ref="AY49:BE49"/>
+    <mergeCell ref="BF49:BO49"/>
+    <mergeCell ref="BP49:CD49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:X48"/>
+    <mergeCell ref="Y48:AO48"/>
+    <mergeCell ref="AQ48:AX48"/>
+    <mergeCell ref="AY48:BE48"/>
+    <mergeCell ref="BF48:BO48"/>
+    <mergeCell ref="BP48:CD48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="AQ46:AX46"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:AE9"/>
+    <mergeCell ref="AF9:AO9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="F30:AO30"/>
+    <mergeCell ref="H15:AO15"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:AE11"/>
+    <mergeCell ref="H18:AO18"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:AO32"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="H3:AO4"/>
+    <mergeCell ref="G7:AO7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:AE8"/>
+    <mergeCell ref="AF8:AO8"/>
+    <mergeCell ref="F28:AO28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:AO29"/>
+    <mergeCell ref="J22:AI22"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:AO27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="K10:AE10"/>
+    <mergeCell ref="AF10:AO10"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:AO19"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:AO16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:AO17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="AF11:AO11"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="CE50:CG50"/>
+    <mergeCell ref="AQ53:AX53"/>
+    <mergeCell ref="CE48:CG48"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:X51"/>
+    <mergeCell ref="Y51:AO51"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="S49:X49"/>
+    <mergeCell ref="Y49:AO49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:X50"/>
+    <mergeCell ref="Y50:AO50"/>
+    <mergeCell ref="AQ51:AX51"/>
+    <mergeCell ref="Y53:AO53"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="AQ52:AX52"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="AQ50:AX50"/>
+    <mergeCell ref="AY50:BE50"/>
+    <mergeCell ref="BF50:BO50"/>
+    <mergeCell ref="BP50:CD50"/>
+    <mergeCell ref="AY46:BE46"/>
+    <mergeCell ref="CE47:CG47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="BF46:BO46"/>
+    <mergeCell ref="BP46:CD46"/>
+    <mergeCell ref="S47:X47"/>
+    <mergeCell ref="Y47:AO47"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="S46:X46"/>
+    <mergeCell ref="Y46:AO46"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
     <mergeCell ref="B79:P79"/>
     <mergeCell ref="F81:Q81"/>
     <mergeCell ref="CE45:CG45"/>
@@ -21096,181 +21376,6 @@
     <mergeCell ref="S54:X54"/>
     <mergeCell ref="Y54:AO54"/>
     <mergeCell ref="AQ54:AX54"/>
-    <mergeCell ref="AQ50:AX50"/>
-    <mergeCell ref="AY50:BE50"/>
-    <mergeCell ref="BF50:BO50"/>
-    <mergeCell ref="BP50:CD50"/>
-    <mergeCell ref="AY46:BE46"/>
-    <mergeCell ref="CE47:CG47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="BF46:BO46"/>
-    <mergeCell ref="BP46:CD46"/>
-    <mergeCell ref="S47:X47"/>
-    <mergeCell ref="Y47:AO47"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="S46:X46"/>
-    <mergeCell ref="Y46:AO46"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="CE50:CG50"/>
-    <mergeCell ref="AQ53:AX53"/>
-    <mergeCell ref="CE48:CG48"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:X51"/>
-    <mergeCell ref="Y51:AO51"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="S49:X49"/>
-    <mergeCell ref="Y49:AO49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:X50"/>
-    <mergeCell ref="Y50:AO50"/>
-    <mergeCell ref="AQ51:AX51"/>
-    <mergeCell ref="Y53:AO53"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="H3:AO4"/>
-    <mergeCell ref="G7:AO7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:AE8"/>
-    <mergeCell ref="AF8:AO8"/>
-    <mergeCell ref="F28:AO28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:AO29"/>
-    <mergeCell ref="J22:AI22"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:AO27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="K10:AE10"/>
-    <mergeCell ref="AF10:AO10"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:AO19"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:AO16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:AO17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="AF11:AO11"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:AE9"/>
-    <mergeCell ref="AF9:AO9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="F30:AO30"/>
-    <mergeCell ref="H15:AO15"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:AE11"/>
-    <mergeCell ref="H18:AO18"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:AO32"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:AO31"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="CE46:CG46"/>
-    <mergeCell ref="AQ49:AX49"/>
-    <mergeCell ref="AY49:BE49"/>
-    <mergeCell ref="BF49:BO49"/>
-    <mergeCell ref="BP49:CD49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:X48"/>
-    <mergeCell ref="Y48:AO48"/>
-    <mergeCell ref="AQ48:AX48"/>
-    <mergeCell ref="AY48:BE48"/>
-    <mergeCell ref="BF48:BO48"/>
-    <mergeCell ref="BP48:CD48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="AQ46:AX46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="AQ52:AX52"/>
-    <mergeCell ref="AY52:BE52"/>
-    <mergeCell ref="BF52:BO52"/>
-    <mergeCell ref="BP52:CD52"/>
-    <mergeCell ref="CE52:CG52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:X52"/>
-    <mergeCell ref="Y52:AO52"/>
-    <mergeCell ref="AY54:BE54"/>
-    <mergeCell ref="BF54:BO54"/>
-    <mergeCell ref="BP54:CD54"/>
-    <mergeCell ref="CE54:CG54"/>
-    <mergeCell ref="AY51:BE51"/>
-    <mergeCell ref="BF51:BO51"/>
-    <mergeCell ref="BP51:CD51"/>
-    <mergeCell ref="CE51:CG51"/>
-    <mergeCell ref="CE49:CG49"/>
-    <mergeCell ref="BF53:BO53"/>
-    <mergeCell ref="BP53:CD53"/>
-    <mergeCell ref="CE53:CG53"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="7">
@@ -21673,7 +21778,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="182" t="s">
+      <c r="A68" s="178" t="s">
         <v>115</v>
       </c>
       <c r="B68" s="46" t="s">
@@ -21681,7 +21786,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="182"/>
+      <c r="A69" s="178"/>
       <c r="B69" s="46" t="s">
         <v>117</v>
       </c>
@@ -21711,6 +21816,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="20" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ec0472f12e3f11265cd3f58b50f33409">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb39c92f8a53a083727757d44a1e15cf" ns2:_="" ns3:_="">
     <xsd:import namespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
@@ -21971,28 +22097,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F43F8E13-BFB7-4F04-949A-CC463DD69229}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3417CADE-5092-43B2-B113-7A7B92C601DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4BEE255-C0B5-48BE-BF7B-86ACE2B8615D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22009,23 +22133,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3417CADE-5092-43B2-B113-7A7B92C601DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F43F8E13-BFB7-4F04-949A-CC463DD69229}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>